--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_10_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1472990.789516436</v>
+        <v>1471155.296000829</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2916074.369778894</v>
+        <v>2916074.369778893</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.067871852857845</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F2" t="n">
-        <v>25.62029119463083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>25.62029119463083</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -826,22 +826,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="H4" t="n">
-        <v>22.56635248423083</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -902,46 +902,46 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10.94391759456929</v>
       </c>
       <c r="F5" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="H5" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22.56635248423084</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="S6" t="n">
+      <c r="W6" t="n">
+        <v>21.81976115797298</v>
+      </c>
+      <c r="X6" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="T6" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="U6" t="n">
-        <v>22.56635248423084</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="C7" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2968606583479874</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="H8" t="n">
-        <v>24.87477961344436</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>39.58387696184059</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C10" t="n">
-        <v>7.256111626157765</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D10" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="E10" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="F10" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.3104846732426</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>340.8495347807695</v>
+        <v>340.8495347807694</v>
       </c>
       <c r="D11" t="n">
-        <v>330.259684630445</v>
+        <v>306.9537819991604</v>
       </c>
       <c r="E11" t="n">
-        <v>357.5070130820238</v>
+        <v>357.5070130820237</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>382.4526887514733</v>
       </c>
       <c r="G11" t="n">
-        <v>388.2833163540272</v>
+        <v>388.2833163540271</v>
       </c>
       <c r="H11" t="n">
-        <v>288.4645029356091</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.96776863271076</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>40.42686232846646</v>
+        <v>187.3082216659108</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.7146107839288</v>
       </c>
       <c r="V11" t="n">
-        <v>303.3289014798969</v>
+        <v>303.3289014798968</v>
       </c>
       <c r="W11" t="n">
-        <v>324.817611727175</v>
+        <v>324.8176117271749</v>
       </c>
       <c r="X11" t="n">
-        <v>345.307743688231</v>
+        <v>345.3077436882309</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.8145816658156</v>
+        <v>361.8145816658155</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.15936487706587</v>
+        <v>104.2386728260541</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.9976910326933</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>179.299094569359</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.5466201039973</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>261.8321539109245</v>
       </c>
       <c r="V13" t="n">
-        <v>227.71428633359</v>
+        <v>227.7142863335899</v>
       </c>
       <c r="W13" t="n">
-        <v>262.099641346353</v>
+        <v>262.0996413463529</v>
       </c>
       <c r="X13" t="n">
-        <v>201.2862983987992</v>
+        <v>201.2862983987991</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.1612963618568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>358.3104846732425</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>340.8495347807694</v>
       </c>
       <c r="D14" t="n">
-        <v>330.259684630445</v>
+        <v>330.2596846304448</v>
       </c>
       <c r="E14" t="n">
-        <v>357.5070130820238</v>
+        <v>357.5070130820237</v>
       </c>
       <c r="F14" t="n">
-        <v>382.4526887514734</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>388.2833163540272</v>
+        <v>388.2833163540271</v>
       </c>
       <c r="H14" t="n">
-        <v>288.4645029356091</v>
+        <v>288.4645029356089</v>
       </c>
       <c r="I14" t="n">
-        <v>85.96776863271074</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>125.4389003023123</v>
+        <v>125.4389003023121</v>
       </c>
       <c r="T14" t="n">
-        <v>187.3082216659109</v>
+        <v>187.3082216659108</v>
       </c>
       <c r="U14" t="n">
-        <v>226.7146107839289</v>
+        <v>226.7146107839288</v>
       </c>
       <c r="V14" t="n">
-        <v>121.0013617587492</v>
+        <v>215.0794114160963</v>
       </c>
       <c r="W14" t="n">
-        <v>324.817611727175</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>345.307743688231</v>
+        <v>345.3077436882309</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.8145816658156</v>
+        <v>361.8145816658155</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>123.4861983606927</v>
       </c>
       <c r="I16" t="n">
-        <v>96.00727623271274</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.231396593339946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>179.2990945693589</v>
       </c>
       <c r="T16" t="n">
-        <v>198.5466201039974</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.8321539109247</v>
+        <v>261.8321539109245</v>
       </c>
       <c r="V16" t="n">
-        <v>227.71428633359</v>
+        <v>227.7142863335899</v>
       </c>
       <c r="W16" t="n">
-        <v>262.099641346353</v>
+        <v>262.0996413463529</v>
       </c>
       <c r="X16" t="n">
-        <v>201.2862983987992</v>
+        <v>201.2862983987991</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>65.42627874963038</v>
       </c>
       <c r="E19" t="n">
-        <v>63.24476837798834</v>
+        <v>63.2447683779872</v>
       </c>
       <c r="F19" t="n">
         <v>62.23185375434927</v>
@@ -2017,7 +2017,7 @@
         <v>83.63728007552557</v>
       </c>
       <c r="H19" t="n">
-        <v>68.68447002035313</v>
+        <v>68.68447002035312</v>
       </c>
       <c r="I19" t="n">
         <v>37.24143895436875</v>
@@ -2084,22 +2084,22 @@
         <v>282.0836975024256</v>
       </c>
       <c r="D20" t="n">
-        <v>271.493847352101</v>
+        <v>271.4938473521009</v>
       </c>
       <c r="E20" t="n">
         <v>298.7411758036798</v>
       </c>
       <c r="F20" t="n">
-        <v>323.6868514731295</v>
+        <v>323.6868514731294</v>
       </c>
       <c r="G20" t="n">
-        <v>329.5174790756833</v>
+        <v>329.5174790756832</v>
       </c>
       <c r="H20" t="n">
-        <v>229.6986656572651</v>
+        <v>229.698665657265</v>
       </c>
       <c r="I20" t="n">
-        <v>27.20193135436676</v>
+        <v>27.20193135436679</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>66.67306302396827</v>
       </c>
       <c r="T20" t="n">
-        <v>128.542384387567</v>
+        <v>128.5423843875669</v>
       </c>
       <c r="U20" t="n">
         <v>167.9487735055849</v>
@@ -2141,10 +2141,10 @@
         <v>244.5630642015529</v>
       </c>
       <c r="W20" t="n">
-        <v>266.0517744488311</v>
+        <v>266.051774448831</v>
       </c>
       <c r="X20" t="n">
-        <v>286.5419064098871</v>
+        <v>286.541906409887</v>
       </c>
       <c r="Y20" t="n">
         <v>303.0487443874716</v>
@@ -2178,7 +2178,7 @@
         <v>98.82046631731255</v>
       </c>
       <c r="I21" t="n">
-        <v>41.57302855278034</v>
+        <v>41.57302855278036</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>13.91694976392039</v>
+        <v>13.91694976392043</v>
       </c>
       <c r="S21" t="n">
         <v>145.8827934981413</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.64278591335533</v>
+        <v>96.64278591335531</v>
       </c>
       <c r="C22" t="n">
-        <v>84.05762683004586</v>
+        <v>84.05762683004585</v>
       </c>
       <c r="D22" t="n">
-        <v>65.42627874963038</v>
+        <v>65.42627874963037</v>
       </c>
       <c r="E22" t="n">
-        <v>63.2447683779872</v>
+        <v>63.24476837798719</v>
       </c>
       <c r="F22" t="n">
-        <v>62.23185375434927</v>
+        <v>62.23185375434926</v>
       </c>
       <c r="G22" t="n">
-        <v>83.63728007552557</v>
+        <v>83.63728007552555</v>
       </c>
       <c r="H22" t="n">
-        <v>68.68447002035313</v>
+        <v>68.68447002035312</v>
       </c>
       <c r="I22" t="n">
         <v>37.24143895436875</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.7438170996682</v>
+        <v>41.74381709966821</v>
       </c>
       <c r="S22" t="n">
         <v>120.533257291015</v>
@@ -2321,22 +2321,22 @@
         <v>282.0836975024256</v>
       </c>
       <c r="D23" t="n">
-        <v>271.493847352101</v>
+        <v>271.4938473521009</v>
       </c>
       <c r="E23" t="n">
         <v>298.7411758036798</v>
       </c>
       <c r="F23" t="n">
-        <v>323.6868514731295</v>
+        <v>323.6868514731294</v>
       </c>
       <c r="G23" t="n">
-        <v>329.5174790756831</v>
+        <v>329.5174790756832</v>
       </c>
       <c r="H23" t="n">
-        <v>229.6986656572651</v>
+        <v>229.698665657265</v>
       </c>
       <c r="I23" t="n">
-        <v>27.20193135436676</v>
+        <v>27.20193135436675</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.67306302396827</v>
+        <v>66.67306302396825</v>
       </c>
       <c r="T23" t="n">
-        <v>128.542384387567</v>
+        <v>128.5423843875669</v>
       </c>
       <c r="U23" t="n">
-        <v>167.948773505585</v>
+        <v>167.9487735055849</v>
       </c>
       <c r="V23" t="n">
         <v>244.5630642015529</v>
       </c>
       <c r="W23" t="n">
-        <v>266.0517744488311</v>
+        <v>266.051774448831</v>
       </c>
       <c r="X23" t="n">
-        <v>286.5419064098871</v>
+        <v>286.541906409887</v>
       </c>
       <c r="Y23" t="n">
         <v>303.0487443874716</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.64278591335533</v>
+        <v>96.64278591335531</v>
       </c>
       <c r="C25" t="n">
-        <v>84.05762683004586</v>
+        <v>84.05762683004585</v>
       </c>
       <c r="D25" t="n">
-        <v>65.42627874963038</v>
+        <v>65.42627874963037</v>
       </c>
       <c r="E25" t="n">
-        <v>63.2447683779872</v>
+        <v>63.24476837798719</v>
       </c>
       <c r="F25" t="n">
-        <v>62.23185375434927</v>
+        <v>62.23185375434926</v>
       </c>
       <c r="G25" t="n">
-        <v>83.63728007552557</v>
+        <v>83.63728007552555</v>
       </c>
       <c r="H25" t="n">
-        <v>68.68447002035313</v>
+        <v>68.68447002035312</v>
       </c>
       <c r="I25" t="n">
-        <v>37.24143895436875</v>
+        <v>37.24143895436873</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.7438170996682</v>
+        <v>41.74381709966818</v>
       </c>
       <c r="S25" t="n">
-        <v>120.533257291015</v>
+        <v>120.5332572910164</v>
       </c>
       <c r="T25" t="n">
         <v>139.7807828256534</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>320.3915469027024</v>
+        <v>320.3915469027025</v>
       </c>
       <c r="C26" t="n">
-        <v>302.9305970102294</v>
+        <v>302.9305970102295</v>
       </c>
       <c r="D26" t="n">
-        <v>292.3407468599048</v>
+        <v>292.3407468599049</v>
       </c>
       <c r="E26" t="n">
-        <v>319.5880753114836</v>
+        <v>319.5880753114837</v>
       </c>
       <c r="F26" t="n">
         <v>344.5337509809333</v>
       </c>
       <c r="G26" t="n">
-        <v>350.3643785834871</v>
+        <v>350.3643785834872</v>
       </c>
       <c r="H26" t="n">
-        <v>250.5455651650688</v>
+        <v>250.545565165069</v>
       </c>
       <c r="I26" t="n">
-        <v>48.04883086217057</v>
+        <v>48.04883086217065</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>87.51996253177205</v>
+        <v>87.51996253177215</v>
       </c>
       <c r="T26" t="n">
-        <v>149.3892838953707</v>
+        <v>149.3892838953708</v>
       </c>
       <c r="U26" t="n">
         <v>188.7956730133888</v>
@@ -2621,7 +2621,7 @@
         <v>307.3888059176909</v>
       </c>
       <c r="Y26" t="n">
-        <v>323.8956438952754</v>
+        <v>323.8956438952755</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>117.4896854211591</v>
+        <v>117.4896854211592</v>
       </c>
       <c r="C28" t="n">
-        <v>104.9045263378497</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>86.27317825743427</v>
       </c>
       <c r="E28" t="n">
-        <v>84.091667885791</v>
+        <v>84.09166788579108</v>
       </c>
       <c r="F28" t="n">
-        <v>83.07875326215307</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>104.4841795833294</v>
       </c>
       <c r="H28" t="n">
-        <v>89.53136952815692</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>58.08833846217255</v>
+        <v>58.08833846217262</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>62.590716607472</v>
+        <v>62.59071660747207</v>
       </c>
       <c r="S28" t="n">
-        <v>141.3801567988188</v>
+        <v>141.3801567988189</v>
       </c>
       <c r="T28" t="n">
-        <v>160.6276823334572</v>
+        <v>160.6276823334573</v>
       </c>
       <c r="U28" t="n">
         <v>223.9132161403845</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>126.5455944968766</v>
       </c>
       <c r="W28" t="n">
-        <v>3.242468610648451</v>
+        <v>224.1807035758129</v>
       </c>
       <c r="X28" t="n">
-        <v>163.367360628259</v>
+        <v>163.3673606282591</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.2423585913166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>320.3915469027024</v>
+        <v>320.3915469027025</v>
       </c>
       <c r="C29" t="n">
-        <v>302.9305970102293</v>
+        <v>302.9305970102295</v>
       </c>
       <c r="D29" t="n">
-        <v>292.3407468599048</v>
+        <v>292.3407468599049</v>
       </c>
       <c r="E29" t="n">
-        <v>319.5880753114836</v>
+        <v>319.5880753114837</v>
       </c>
       <c r="F29" t="n">
-        <v>344.5337509809332</v>
+        <v>344.5337509809333</v>
       </c>
       <c r="G29" t="n">
-        <v>350.3643785834871</v>
+        <v>350.3643785834872</v>
       </c>
       <c r="H29" t="n">
-        <v>250.5455651650688</v>
+        <v>250.545565165069</v>
       </c>
       <c r="I29" t="n">
-        <v>48.04883086217053</v>
+        <v>48.04883086216974</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>87.51996253177201</v>
+        <v>87.51996253177215</v>
       </c>
       <c r="T29" t="n">
-        <v>149.3892838953707</v>
+        <v>149.3892838953708</v>
       </c>
       <c r="U29" t="n">
-        <v>188.7956730133887</v>
+        <v>188.7956730133888</v>
       </c>
       <c r="V29" t="n">
-        <v>265.4099637093567</v>
+        <v>265.4099637093568</v>
       </c>
       <c r="W29" t="n">
-        <v>286.8986739566348</v>
+        <v>286.8986739566349</v>
       </c>
       <c r="X29" t="n">
-        <v>307.3888059176908</v>
+        <v>307.3888059176909</v>
       </c>
       <c r="Y29" t="n">
-        <v>323.8956438952754</v>
+        <v>323.8956438952755</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>117.4896854211591</v>
+        <v>117.4896854211592</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.09166788579108</v>
       </c>
       <c r="F31" t="n">
-        <v>83.07875326215303</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>101.5798654775456</v>
+        <v>91.944300252918</v>
       </c>
       <c r="H31" t="n">
-        <v>89.53136952815689</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>58.08833846217251</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>141.3801567988187</v>
+        <v>141.3801567988189</v>
       </c>
       <c r="T31" t="n">
-        <v>160.6276823334572</v>
+        <v>160.6276823334573</v>
       </c>
       <c r="U31" t="n">
         <v>223.9132161403845</v>
       </c>
       <c r="V31" t="n">
-        <v>189.7953485630498</v>
+        <v>189.7953485630499</v>
       </c>
       <c r="W31" t="n">
-        <v>224.1807035758128</v>
+        <v>224.1807035758129</v>
       </c>
       <c r="X31" t="n">
-        <v>163.367360628259</v>
+        <v>163.3673606282591</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>156.2423585913167</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.8770265114666</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>80.47900897609848</v>
       </c>
       <c r="F34" t="n">
-        <v>11.145789373748</v>
+        <v>79.46609435246056</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>18.61606861206953</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>85.9187106184644</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>58.97805769777948</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>137.7674978891263</v>
@@ -3284,7 +3284,7 @@
         <v>229.6986656572651</v>
       </c>
       <c r="I35" t="n">
-        <v>27.20193135436676</v>
+        <v>27.20193135436679</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.67306302396825</v>
+        <v>66.6730630239683</v>
       </c>
       <c r="T35" t="n">
-        <v>128.5423843875669</v>
+        <v>128.542384387567</v>
       </c>
       <c r="U35" t="n">
-        <v>167.9487735055849</v>
+        <v>167.948773505585</v>
       </c>
       <c r="V35" t="n">
         <v>244.5630642015529</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.64278591335533</v>
+        <v>96.64278591335535</v>
       </c>
       <c r="C37" t="n">
-        <v>84.05762683004586</v>
+        <v>84.05762683004589</v>
       </c>
       <c r="D37" t="n">
-        <v>65.42627874963038</v>
+        <v>65.42627874963041</v>
       </c>
       <c r="E37" t="n">
-        <v>63.2447683779872</v>
+        <v>63.24476837798723</v>
       </c>
       <c r="F37" t="n">
-        <v>62.23185375434927</v>
+        <v>62.2318537543493</v>
       </c>
       <c r="G37" t="n">
-        <v>83.63728007552557</v>
+        <v>83.6372800755256</v>
       </c>
       <c r="H37" t="n">
-        <v>68.68447002035312</v>
+        <v>68.68447002035316</v>
       </c>
       <c r="I37" t="n">
-        <v>37.24143895436875</v>
+        <v>37.24143895436878</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.74381709966819</v>
+        <v>41.74381709966823</v>
       </c>
       <c r="S37" t="n">
         <v>120.533257291015</v>
@@ -3679,7 +3679,7 @@
         <v>68.68447002035317</v>
       </c>
       <c r="I40" t="n">
-        <v>37.24143895436789</v>
+        <v>37.2414389543688</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>299.5446473948986</v>
+        <v>299.5446473948987</v>
       </c>
       <c r="C41" t="n">
         <v>282.0836975024256</v>
       </c>
       <c r="D41" t="n">
-        <v>271.493847352101</v>
+        <v>271.4938473521011</v>
       </c>
       <c r="E41" t="n">
-        <v>298.7411758036798</v>
+        <v>298.7411758036799</v>
       </c>
       <c r="F41" t="n">
         <v>323.6868514731295</v>
       </c>
       <c r="G41" t="n">
-        <v>329.5174790756833</v>
+        <v>329.5174790756834</v>
       </c>
       <c r="H41" t="n">
         <v>229.6986656572651</v>
       </c>
       <c r="I41" t="n">
-        <v>27.20193135436682</v>
+        <v>27.20193135436681</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>167.948773505585</v>
       </c>
       <c r="V41" t="n">
-        <v>244.5630642015529</v>
+        <v>244.563064201553</v>
       </c>
       <c r="W41" t="n">
         <v>266.0517744488311</v>
@@ -3837,7 +3837,7 @@
         <v>98.82046631731255</v>
       </c>
       <c r="I42" t="n">
-        <v>41.57302855278035</v>
+        <v>41.57302855278034</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>13.91694976392041</v>
+        <v>13.91694976392039</v>
       </c>
       <c r="S42" t="n">
         <v>145.8827934981413</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.6427859133552</v>
+        <v>96.64278591335537</v>
       </c>
       <c r="C43" t="n">
-        <v>84.05762683004589</v>
+        <v>84.0576268300459</v>
       </c>
       <c r="D43" t="n">
-        <v>65.42627874963041</v>
+        <v>65.42627874963043</v>
       </c>
       <c r="E43" t="n">
-        <v>63.24476837798723</v>
+        <v>63.24476837798724</v>
       </c>
       <c r="F43" t="n">
-        <v>62.2318537543493</v>
+        <v>62.23185375434932</v>
       </c>
       <c r="G43" t="n">
-        <v>83.6372800755256</v>
+        <v>83.63728007552561</v>
       </c>
       <c r="H43" t="n">
-        <v>68.68447002035316</v>
+        <v>68.68447002035317</v>
       </c>
       <c r="I43" t="n">
-        <v>37.24143895436879</v>
+        <v>37.2414389543688</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>120.533257291015</v>
       </c>
       <c r="T43" t="n">
-        <v>139.7807828256534</v>
+        <v>139.7807828256535</v>
       </c>
       <c r="U43" t="n">
-        <v>203.0663166325807</v>
+        <v>203.0663166325796</v>
       </c>
       <c r="V43" t="n">
-        <v>168.948449055246</v>
+        <v>168.9484490552461</v>
       </c>
       <c r="W43" t="n">
-        <v>203.333804068009</v>
+        <v>203.3338040680091</v>
       </c>
       <c r="X43" t="n">
         <v>142.5204611204552</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.3954590835128</v>
+        <v>135.3954590835129</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>299.5446473948986</v>
       </c>
       <c r="C44" t="n">
-        <v>282.0836975024252</v>
+        <v>282.0836975024256</v>
       </c>
       <c r="D44" t="n">
         <v>271.493847352101</v>
@@ -3995,7 +3995,7 @@
         <v>229.6986656572651</v>
       </c>
       <c r="I44" t="n">
-        <v>27.20193135436682</v>
+        <v>27.20193135436679</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.67306302396831</v>
+        <v>66.6730630239683</v>
       </c>
       <c r="T44" t="n">
         <v>128.542384387567</v>
@@ -4074,7 +4074,7 @@
         <v>98.82046631731255</v>
       </c>
       <c r="I45" t="n">
-        <v>41.57302855278035</v>
+        <v>41.57302855278034</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>13.91694976392041</v>
+        <v>13.91694976392039</v>
       </c>
       <c r="S45" t="n">
         <v>145.8827934981413</v>
@@ -4141,7 +4141,7 @@
         <v>65.42627874963041</v>
       </c>
       <c r="E46" t="n">
-        <v>63.24476837798723</v>
+        <v>63.24476837798682</v>
       </c>
       <c r="F46" t="n">
         <v>62.2318537543493</v>
@@ -4153,7 +4153,7 @@
         <v>68.68447002035316</v>
       </c>
       <c r="I46" t="n">
-        <v>37.24143895436879</v>
+        <v>37.24143895436878</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74381709966824</v>
+        <v>41.74381709966823</v>
       </c>
       <c r="S46" t="n">
         <v>120.533257291015</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.80778732512771</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="C2" t="n">
-        <v>53.80778732512771</v>
+        <v>88.28058794276306</v>
       </c>
       <c r="D2" t="n">
-        <v>53.80778732512771</v>
+        <v>62.40150592798445</v>
       </c>
       <c r="E2" t="n">
-        <v>53.80778732512771</v>
+        <v>36.52242391320583</v>
       </c>
       <c r="F2" t="n">
-        <v>27.92870531034908</v>
+        <v>29.57692316400236</v>
       </c>
       <c r="G2" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H2" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I2" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J2" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L2" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M2" t="n">
-        <v>26.38889993046976</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N2" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O2" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P2" t="n">
         <v>102.4811647785233</v>
@@ -4370,10 +4370,10 @@
         <v>92.38954941029624</v>
       </c>
       <c r="X2" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.80778732512771</v>
+        <v>92.38954941029624</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="C3" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="D3" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="E3" t="n">
-        <v>50.72300074896609</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="F3" t="n">
-        <v>50.72300074896609</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="G3" t="n">
         <v>28.6828379631348</v>
       </c>
       <c r="H3" t="n">
-        <v>28.6828379631348</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I3" t="n">
         <v>2.80375594835618</v>
@@ -4419,10 +4419,10 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N3" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O3" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P3" t="n">
         <v>102.4811647785233</v>
@@ -4431,28 +4431,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S3" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T3" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U3" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V3" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="W3" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="X3" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.72300074896609</v>
+        <v>80.44100199269204</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="C4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="D4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="E4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="F4" t="n">
-        <v>76.6020827637447</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="G4" t="n">
-        <v>50.72300074896609</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="H4" t="n">
-        <v>27.92870531034908</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I4" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J4" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K4" t="n">
         <v>2.049623295570466</v>
@@ -4504,34 +4504,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="R4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="S4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="T4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="U4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="V4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="W4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="X4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.4811647785233</v>
+        <v>76.30222351288816</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="C5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="D5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="E5" t="n">
-        <v>102.4811647785233</v>
+        <v>55.45600517878098</v>
       </c>
       <c r="F5" t="n">
-        <v>76.60208276374472</v>
+        <v>29.57692316400236</v>
       </c>
       <c r="G5" t="n">
-        <v>50.7230007489661</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H5" t="n">
-        <v>24.84391873418748</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I5" t="n">
-        <v>2.049623295570467</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J5" t="n">
         <v>2.049623295570467</v>
@@ -4574,43 +4574,43 @@
         <v>2.049623295570467</v>
       </c>
       <c r="M5" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046975</v>
       </c>
       <c r="N5" t="n">
-        <v>52.77779986093952</v>
+        <v>51.75298821315427</v>
       </c>
       <c r="O5" t="n">
-        <v>78.14188814362404</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P5" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.4811647785233</v>
+        <v>92.38954941029625</v>
       </c>
       <c r="R5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="S5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="U5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="V5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="W5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="X5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.4811647785233</v>
+        <v>66.51046739551764</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="C6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="D6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="E6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="F6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="G6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="H6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I6" t="n">
-        <v>2.049623295570467</v>
+        <v>2.803755948356181</v>
       </c>
       <c r="J6" t="n">
         <v>2.049623295570467</v>
@@ -4650,10 +4650,10 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L6" t="n">
-        <v>27.41371157825499</v>
+        <v>51.75298821315427</v>
       </c>
       <c r="M6" t="n">
-        <v>51.75298821315427</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N6" t="n">
         <v>77.1170764958388</v>
@@ -4662,34 +4662,34 @@
         <v>77.1170764958388</v>
       </c>
       <c r="P6" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q6" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="S6" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="T6" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="U6" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="V6" t="n">
         <v>76.60208276374472</v>
       </c>
-      <c r="S6" t="n">
-        <v>50.7230007489661</v>
-      </c>
-      <c r="T6" t="n">
-        <v>24.84391873418748</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.049623295570467</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.049623295570467</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.049623295570467</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="X6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.049623295570467</v>
+        <v>28.6828379631348</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.60208276374472</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="C7" t="n">
-        <v>50.7230007489661</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="D7" t="n">
-        <v>24.84391873418748</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="E7" t="n">
-        <v>24.54405948333093</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="F7" t="n">
-        <v>24.54405948333093</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="G7" t="n">
-        <v>24.54405948333093</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="H7" t="n">
-        <v>24.54405948333093</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="I7" t="n">
-        <v>24.54405948333093</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J7" t="n">
         <v>24.54405948333093</v>
@@ -4741,34 +4741,34 @@
         <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.4811647785233</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R7" t="n">
-        <v>102.4811647785233</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="S7" t="n">
-        <v>102.4811647785233</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="T7" t="n">
-        <v>102.4811647785233</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="U7" t="n">
-        <v>102.4811647785233</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="V7" t="n">
-        <v>102.4811647785233</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="W7" t="n">
-        <v>102.4811647785233</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="X7" t="n">
-        <v>102.4811647785233</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.4811647785233</v>
+        <v>50.42314149810954</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="C8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="D8" t="n">
-        <v>108.260178376266</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="E8" t="n">
-        <v>108.260178376266</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="F8" t="n">
-        <v>68.2764642733967</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="G8" t="n">
-        <v>28.29275017052741</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
@@ -4808,16 +4808,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="M8" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="N8" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N8" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="O8" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
@@ -4826,28 +4826,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="C9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="D9" t="n">
-        <v>43.15042425981653</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="N9" t="n">
-        <v>81.54278654139161</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O9" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="P9" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="P9" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
@@ -4908,25 +4908,25 @@
         <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T9" t="n">
         <v>78.36807964162378</v>
       </c>
       <c r="U9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="V9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="W9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="X9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="Y9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.90455691260225</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4472581485427</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C10" t="n">
-        <v>123.1178524655551</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D10" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1882.098478794931</v>
+        <v>1866.658594503889</v>
       </c>
       <c r="C11" t="n">
-        <v>1537.806019420416</v>
+        <v>1522.366135129374</v>
       </c>
       <c r="D11" t="n">
-        <v>1204.210378379562</v>
+        <v>1212.311809877697</v>
       </c>
       <c r="E11" t="n">
-        <v>843.0921833472156</v>
+        <v>851.1936148453503</v>
       </c>
       <c r="F11" t="n">
-        <v>843.0921833472156</v>
+        <v>464.8777676216397</v>
       </c>
       <c r="G11" t="n">
-        <v>450.8868132926426</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="H11" t="n">
-        <v>159.5085274990981</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="I11" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J11" t="n">
-        <v>111.5712764937828</v>
+        <v>278.9769255141358</v>
       </c>
       <c r="K11" t="n">
-        <v>541.513089202229</v>
+        <v>708.9187382225821</v>
       </c>
       <c r="L11" t="n">
-        <v>1127.170553464975</v>
+        <v>1294.576202485328</v>
       </c>
       <c r="M11" t="n">
-        <v>1795.433872042685</v>
+        <v>1646.977407308434</v>
       </c>
       <c r="N11" t="n">
-        <v>2459.878392216959</v>
+        <v>2311.421927482708</v>
       </c>
       <c r="O11" t="n">
-        <v>3042.106873358546</v>
+        <v>2893.650408624295</v>
       </c>
       <c r="P11" t="n">
-        <v>3501.351028773372</v>
+        <v>3352.894564039121</v>
       </c>
       <c r="Q11" t="n">
-        <v>3633.619878353342</v>
+        <v>3620.546039301415</v>
       </c>
       <c r="R11" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353341</v>
       </c>
       <c r="S11" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353341</v>
       </c>
       <c r="T11" t="n">
-        <v>3592.784663880144</v>
+        <v>3444.419654448381</v>
       </c>
       <c r="U11" t="n">
-        <v>3592.784663880144</v>
+        <v>3215.414997090877</v>
       </c>
       <c r="V11" t="n">
-        <v>3286.391834102471</v>
+        <v>2909.022167313203</v>
       </c>
       <c r="W11" t="n">
-        <v>2958.293236398253</v>
+        <v>2580.923569608986</v>
       </c>
       <c r="X11" t="n">
-        <v>2609.49753570307</v>
+        <v>2232.127868913803</v>
       </c>
       <c r="Y11" t="n">
-        <v>2244.028261293156</v>
+        <v>1866.658594503889</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>351.811786704472</v>
       </c>
       <c r="G12" t="n">
-        <v>214.4840085469587</v>
+        <v>214.4840085469586</v>
       </c>
       <c r="H12" t="n">
         <v>114.6653557011884</v>
       </c>
       <c r="I12" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J12" t="n">
-        <v>201.8525814018324</v>
+        <v>201.8525814018323</v>
       </c>
       <c r="K12" t="n">
-        <v>287.4423495647592</v>
+        <v>549.262934207212</v>
       </c>
       <c r="L12" t="n">
-        <v>448.8508964484002</v>
+        <v>1077.803422941277</v>
       </c>
       <c r="M12" t="n">
-        <v>1117.611938797058</v>
+        <v>1285.516452177435</v>
       </c>
       <c r="N12" t="n">
-        <v>1819.780109363554</v>
+        <v>1513.135672143814</v>
       </c>
       <c r="O12" t="n">
-        <v>2395.711127493906</v>
+        <v>1950.10374919507</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.66533588804</v>
+        <v>2395.336098542742</v>
       </c>
       <c r="Q12" t="n">
         <v>2640.264363771025</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.8922874990803</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="C13" t="n">
-        <v>194.8922874990803</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8922874990803</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8922874990803</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="F13" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="G13" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="H13" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="I13" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J13" t="n">
-        <v>85.93313214138118</v>
+        <v>85.93313214138129</v>
       </c>
       <c r="K13" t="n">
-        <v>222.0068254047699</v>
+        <v>222.0068254047701</v>
       </c>
       <c r="L13" t="n">
-        <v>444.8989088751168</v>
+        <v>444.8989088751173</v>
       </c>
       <c r="M13" t="n">
-        <v>688.9821101497971</v>
+        <v>688.9821101497976</v>
       </c>
       <c r="N13" t="n">
-        <v>933.2711003847357</v>
+        <v>933.2711003847362</v>
       </c>
       <c r="O13" t="n">
-        <v>1144.741016108165</v>
+        <v>1144.741016108166</v>
       </c>
       <c r="P13" t="n">
         <v>1305.659085599103</v>
       </c>
       <c r="Q13" t="n">
-        <v>1341.074087384963</v>
+        <v>1341.074087384964</v>
       </c>
       <c r="R13" t="n">
-        <v>1341.074087384963</v>
+        <v>1341.074087384964</v>
       </c>
       <c r="S13" t="n">
-        <v>1159.963890850257</v>
+        <v>1341.074087384964</v>
       </c>
       <c r="T13" t="n">
-        <v>1159.963890850257</v>
+        <v>1140.521945865774</v>
       </c>
       <c r="U13" t="n">
-        <v>1159.963890850257</v>
+        <v>876.0450227234263</v>
       </c>
       <c r="V13" t="n">
-        <v>929.949460210267</v>
+        <v>646.0305920834364</v>
       </c>
       <c r="W13" t="n">
-        <v>665.2023477392034</v>
+        <v>381.283479612373</v>
       </c>
       <c r="X13" t="n">
-        <v>461.8828544070831</v>
+        <v>177.9639862802528</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.7603328294499</v>
+        <v>177.9639862802528</v>
       </c>
     </row>
     <row r="14">
@@ -5252,58 +5252,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1924.121866644126</v>
+        <v>1795.262348862899</v>
       </c>
       <c r="C14" t="n">
-        <v>1924.121866644126</v>
+        <v>1450.969889488384</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.526225603273</v>
+        <v>1117.374248447531</v>
       </c>
       <c r="E14" t="n">
-        <v>1229.408030570926</v>
+        <v>756.2560534151842</v>
       </c>
       <c r="F14" t="n">
-        <v>843.092183347215</v>
+        <v>756.2560534151842</v>
       </c>
       <c r="G14" t="n">
-        <v>450.8868132926423</v>
+        <v>364.0506833606112</v>
       </c>
       <c r="H14" t="n">
-        <v>159.5085274990979</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="I14" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J14" t="n">
-        <v>111.5712764937828</v>
+        <v>278.9769255141358</v>
       </c>
       <c r="K14" t="n">
-        <v>541.513089202229</v>
+        <v>708.9187382225821</v>
       </c>
       <c r="L14" t="n">
-        <v>1127.170553464975</v>
+        <v>1294.576202485328</v>
       </c>
       <c r="M14" t="n">
-        <v>1795.433872042685</v>
+        <v>1962.839521063038</v>
       </c>
       <c r="N14" t="n">
-        <v>2459.878392216959</v>
+        <v>2627.284041237312</v>
       </c>
       <c r="O14" t="n">
-        <v>3042.106873358546</v>
+        <v>3209.512522378899</v>
       </c>
       <c r="P14" t="n">
-        <v>3501.351028773372</v>
+        <v>3365.968403091047</v>
       </c>
       <c r="Q14" t="n">
-        <v>3620.546039301416</v>
+        <v>3633.619878353341</v>
       </c>
       <c r="R14" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353341</v>
       </c>
       <c r="S14" t="n">
-        <v>3506.913918452017</v>
+        <v>3506.913918452016</v>
       </c>
       <c r="T14" t="n">
         <v>3317.713694547056</v>
@@ -5312,16 +5312,16 @@
         <v>3088.709037189552</v>
       </c>
       <c r="V14" t="n">
-        <v>2966.485439453441</v>
+        <v>2871.457106466221</v>
       </c>
       <c r="W14" t="n">
-        <v>2638.386841749224</v>
+        <v>2871.457106466221</v>
       </c>
       <c r="X14" t="n">
-        <v>2289.591141054041</v>
+        <v>2522.661405771039</v>
       </c>
       <c r="Y14" t="n">
-        <v>1924.121866644126</v>
+        <v>2157.192131361124</v>
       </c>
     </row>
     <row r="15">
@@ -5346,25 +5346,25 @@
         <v>351.811786704472</v>
       </c>
       <c r="G15" t="n">
-        <v>214.4840085469587</v>
+        <v>214.4840085469586</v>
       </c>
       <c r="H15" t="n">
         <v>114.6653557011884</v>
       </c>
       <c r="I15" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J15" t="n">
-        <v>201.8525814018324</v>
+        <v>201.8525814018323</v>
       </c>
       <c r="K15" t="n">
-        <v>549.2629342072121</v>
+        <v>549.262934207212</v>
       </c>
       <c r="L15" t="n">
-        <v>1077.803422941278</v>
+        <v>1077.803422941277</v>
       </c>
       <c r="M15" t="n">
-        <v>1285.516452177436</v>
+        <v>1285.516452177435</v>
       </c>
       <c r="N15" t="n">
         <v>1513.135672143814</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.6494442667766</v>
+        <v>197.4059312647362</v>
       </c>
       <c r="C16" t="n">
-        <v>169.6494442667766</v>
+        <v>197.4059312647362</v>
       </c>
       <c r="D16" t="n">
-        <v>169.6494442667766</v>
+        <v>197.4059312647362</v>
       </c>
       <c r="E16" t="n">
-        <v>169.6494442667766</v>
+        <v>197.4059312647362</v>
       </c>
       <c r="F16" t="n">
-        <v>169.6494442667766</v>
+        <v>197.4059312647362</v>
       </c>
       <c r="G16" t="n">
-        <v>169.6494442667766</v>
+        <v>197.4059312647362</v>
       </c>
       <c r="H16" t="n">
-        <v>169.6494442667766</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="I16" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J16" t="n">
-        <v>85.93313214138118</v>
+        <v>85.93313214138131</v>
       </c>
       <c r="K16" t="n">
-        <v>222.0068254047699</v>
+        <v>222.0068254047701</v>
       </c>
       <c r="L16" t="n">
-        <v>444.8989088751169</v>
+        <v>444.8989088751172</v>
       </c>
       <c r="M16" t="n">
-        <v>688.9821101497972</v>
+        <v>688.9821101497976</v>
       </c>
       <c r="N16" t="n">
-        <v>933.2711003847357</v>
+        <v>933.2711003847362</v>
       </c>
       <c r="O16" t="n">
-        <v>1144.741016108165</v>
+        <v>1144.741016108166</v>
       </c>
       <c r="P16" t="n">
-        <v>1305.659085599103</v>
+        <v>1305.659085599104</v>
       </c>
       <c r="Q16" t="n">
-        <v>1341.074087384963</v>
+        <v>1341.074087384964</v>
       </c>
       <c r="R16" t="n">
-        <v>1332.759545371488</v>
+        <v>1341.074087384964</v>
       </c>
       <c r="S16" t="n">
-        <v>1332.759545371488</v>
+        <v>1159.963890850258</v>
       </c>
       <c r="T16" t="n">
-        <v>1132.207403852299</v>
+        <v>1159.963890850258</v>
       </c>
       <c r="U16" t="n">
-        <v>867.7304807099506</v>
+        <v>895.4869677079098</v>
       </c>
       <c r="V16" t="n">
-        <v>637.7160500699606</v>
+        <v>665.47253706792</v>
       </c>
       <c r="W16" t="n">
-        <v>372.968937598897</v>
+        <v>400.7254245968564</v>
       </c>
       <c r="X16" t="n">
-        <v>169.6494442667766</v>
+        <v>197.4059312647362</v>
       </c>
       <c r="Y16" t="n">
-        <v>169.6494442667766</v>
+        <v>197.4059312647362</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>1852.898304858633</v>
       </c>
       <c r="C17" t="n">
-        <v>1567.965277078405</v>
+        <v>1567.965277078406</v>
       </c>
       <c r="D17" t="n">
-        <v>1293.729067631838</v>
+        <v>1293.729067631839</v>
       </c>
       <c r="E17" t="n">
-        <v>991.9703041937779</v>
+        <v>991.9703041937786</v>
       </c>
       <c r="F17" t="n">
-        <v>665.0138885643541</v>
+        <v>665.0138885643548</v>
       </c>
       <c r="G17" t="n">
-        <v>332.167950104068</v>
+        <v>332.1679501040687</v>
       </c>
       <c r="H17" t="n">
-        <v>100.1490959048111</v>
+        <v>100.149095904811</v>
       </c>
       <c r="I17" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J17" t="n">
-        <v>278.9769255141358</v>
+        <v>111.5712764937827</v>
       </c>
       <c r="K17" t="n">
-        <v>708.9187382225821</v>
+        <v>541.513089202229</v>
       </c>
       <c r="L17" t="n">
-        <v>1294.576202485328</v>
+        <v>1127.170553464975</v>
       </c>
       <c r="M17" t="n">
-        <v>1646.977407308435</v>
+        <v>1660.05124636036</v>
       </c>
       <c r="N17" t="n">
-        <v>2311.421927482709</v>
+        <v>2324.495766534634</v>
       </c>
       <c r="O17" t="n">
-        <v>2893.650408624296</v>
+        <v>2906.724247676221</v>
       </c>
       <c r="P17" t="n">
-        <v>3352.894564039122</v>
+        <v>3365.968403091047</v>
       </c>
       <c r="Q17" t="n">
-        <v>3620.546039301416</v>
+        <v>3633.619878353341</v>
       </c>
       <c r="R17" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353341</v>
       </c>
       <c r="S17" t="n">
         <v>3566.273350046303</v>
@@ -5546,10 +5546,10 @@
         <v>3436.432557735629</v>
       </c>
       <c r="U17" t="n">
-        <v>3266.787331972412</v>
+        <v>3266.787331972413</v>
       </c>
       <c r="V17" t="n">
-        <v>3019.753933789025</v>
+        <v>3019.753933789026</v>
       </c>
       <c r="W17" t="n">
         <v>2751.014767679095</v>
@@ -5583,28 +5583,28 @@
         <v>351.811786704472</v>
       </c>
       <c r="G18" t="n">
-        <v>214.4840085469587</v>
+        <v>214.4840085469586</v>
       </c>
       <c r="H18" t="n">
         <v>114.6653557011884</v>
       </c>
       <c r="I18" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J18" t="n">
-        <v>201.8525814018324</v>
+        <v>201.8525814018323</v>
       </c>
       <c r="K18" t="n">
-        <v>549.2629342072121</v>
+        <v>549.262934207212</v>
       </c>
       <c r="L18" t="n">
-        <v>1077.803422941278</v>
+        <v>1077.803422941277</v>
       </c>
       <c r="M18" t="n">
-        <v>1285.516452177436</v>
+        <v>1285.516452177435</v>
       </c>
       <c r="N18" t="n">
-        <v>1513.135672143814</v>
+        <v>1764.09642714868</v>
       </c>
       <c r="O18" t="n">
         <v>1950.10374919507</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>541.888273084502</v>
+        <v>541.8882730845016</v>
       </c>
       <c r="C19" t="n">
-        <v>456.9815793167788</v>
+        <v>456.9815793167786</v>
       </c>
       <c r="D19" t="n">
-        <v>390.8944290646269</v>
+        <v>390.8944290646266</v>
       </c>
       <c r="E19" t="n">
-        <v>327.0108246424165</v>
+        <v>327.0108246424173</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1503663046905</v>
+        <v>264.1503663046908</v>
       </c>
       <c r="G19" t="n">
         <v>179.668265218301</v>
@@ -5668,10 +5668,10 @@
         <v>110.2900126724898</v>
       </c>
       <c r="I19" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J19" t="n">
-        <v>144.1113110469418</v>
+        <v>144.1113110469417</v>
       </c>
       <c r="K19" t="n">
         <v>338.363183215891</v>
@@ -5680,10 +5680,10 @@
         <v>619.4334455917985</v>
       </c>
       <c r="M19" t="n">
-        <v>921.6948257720394</v>
+        <v>921.6948257720392</v>
       </c>
       <c r="N19" t="n">
-        <v>1224.161994912539</v>
+        <v>1224.161994912538</v>
       </c>
       <c r="O19" t="n">
         <v>1493.810089541529</v>
@@ -5695,7 +5695,7 @@
         <v>1806.499518629447</v>
       </c>
       <c r="R19" t="n">
-        <v>1764.334046811601</v>
+        <v>1764.3340468116</v>
       </c>
       <c r="S19" t="n">
         <v>1642.583281871181</v>
@@ -5704,19 +5704,19 @@
         <v>1501.390571946279</v>
       </c>
       <c r="U19" t="n">
-        <v>1296.273080398218</v>
+        <v>1296.273080398217</v>
       </c>
       <c r="V19" t="n">
-        <v>1125.618081352515</v>
+        <v>1125.618081352514</v>
       </c>
       <c r="W19" t="n">
-        <v>920.2304004757377</v>
+        <v>920.2304004757375</v>
       </c>
       <c r="X19" t="n">
-        <v>776.2703387379041</v>
+        <v>776.270338737904</v>
       </c>
       <c r="Y19" t="n">
-        <v>639.5072487545578</v>
+        <v>639.5072487545575</v>
       </c>
     </row>
     <row r="20">
@@ -5747,40 +5747,40 @@
         <v>100.1490959048111</v>
       </c>
       <c r="I20" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J20" t="n">
-        <v>186.3804915647651</v>
+        <v>111.5712764937827</v>
       </c>
       <c r="K20" t="n">
-        <v>616.3223042732113</v>
+        <v>406.130463519905</v>
       </c>
       <c r="L20" t="n">
-        <v>1201.979768535957</v>
+        <v>991.7879277826507</v>
       </c>
       <c r="M20" t="n">
-        <v>1870.243087113667</v>
+        <v>1660.05124636036</v>
       </c>
       <c r="N20" t="n">
-        <v>2534.687607287941</v>
+        <v>2324.495766534634</v>
       </c>
       <c r="O20" t="n">
-        <v>3116.916088429528</v>
+        <v>2906.724247676221</v>
       </c>
       <c r="P20" t="n">
-        <v>3576.160243844354</v>
+        <v>3365.968403091047</v>
       </c>
       <c r="Q20" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353341</v>
       </c>
       <c r="R20" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353341</v>
       </c>
       <c r="S20" t="n">
-        <v>3566.273350046304</v>
+        <v>3566.273350046303</v>
       </c>
       <c r="T20" t="n">
-        <v>3436.43255773563</v>
+        <v>3436.432557735629</v>
       </c>
       <c r="U20" t="n">
         <v>3266.787331972413</v>
@@ -5789,7 +5789,7 @@
         <v>3019.753933789026</v>
       </c>
       <c r="W20" t="n">
-        <v>2751.014767679095</v>
+        <v>2751.014767679096</v>
       </c>
       <c r="X20" t="n">
         <v>2461.578498578199</v>
@@ -5820,28 +5820,28 @@
         <v>351.811786704472</v>
       </c>
       <c r="G21" t="n">
-        <v>214.4840085469587</v>
+        <v>214.4840085469586</v>
       </c>
       <c r="H21" t="n">
         <v>114.6653557011884</v>
       </c>
       <c r="I21" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J21" t="n">
-        <v>201.8525814018324</v>
+        <v>201.8525814018323</v>
       </c>
       <c r="K21" t="n">
-        <v>549.2629342072121</v>
+        <v>549.2629342072119</v>
       </c>
       <c r="L21" t="n">
-        <v>1077.803422941278</v>
+        <v>1077.803422941277</v>
       </c>
       <c r="M21" t="n">
-        <v>1285.516452177436</v>
+        <v>1285.516452177435</v>
       </c>
       <c r="N21" t="n">
-        <v>1513.135672143814</v>
+        <v>1764.096427148681</v>
       </c>
       <c r="O21" t="n">
         <v>1950.10374919507</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>541.8882730845016</v>
+        <v>541.8882730845014</v>
       </c>
       <c r="C22" t="n">
         <v>456.9815793167784</v>
       </c>
       <c r="D22" t="n">
-        <v>390.8944290646264</v>
+        <v>390.8944290646265</v>
       </c>
       <c r="E22" t="n">
-        <v>327.010824642417</v>
+        <v>327.0108246424172</v>
       </c>
       <c r="F22" t="n">
-        <v>264.1503663046905</v>
+        <v>264.1503663046907</v>
       </c>
       <c r="G22" t="n">
-        <v>179.668265218301</v>
+        <v>179.6682652183013</v>
       </c>
       <c r="H22" t="n">
         <v>110.2900126724898</v>
       </c>
       <c r="I22" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706682</v>
       </c>
       <c r="J22" t="n">
-        <v>144.1113110469418</v>
+        <v>144.1113110469416</v>
       </c>
       <c r="K22" t="n">
-        <v>338.363183215891</v>
+        <v>338.3631832158908</v>
       </c>
       <c r="L22" t="n">
-        <v>619.4334455917984</v>
+        <v>619.4334455917983</v>
       </c>
       <c r="M22" t="n">
         <v>921.6948257720392</v>
@@ -5923,10 +5923,10 @@
         <v>1224.161994912538</v>
       </c>
       <c r="O22" t="n">
-        <v>1493.810089541529</v>
+        <v>1493.810089541528</v>
       </c>
       <c r="P22" t="n">
-        <v>1712.906337938027</v>
+        <v>1712.906337938026</v>
       </c>
       <c r="Q22" t="n">
         <v>1806.499518629447</v>
@@ -5938,7 +5938,7 @@
         <v>1642.583281871181</v>
       </c>
       <c r="T22" t="n">
-        <v>1501.390571946279</v>
+        <v>1501.390571946278</v>
       </c>
       <c r="U22" t="n">
         <v>1296.273080398217</v>
@@ -5947,13 +5947,13 @@
         <v>1125.618081352514</v>
       </c>
       <c r="W22" t="n">
-        <v>920.2304004757373</v>
+        <v>920.230400475737</v>
       </c>
       <c r="X22" t="n">
-        <v>776.2703387379038</v>
+        <v>776.2703387379036</v>
       </c>
       <c r="Y22" t="n">
-        <v>639.5072487545575</v>
+        <v>639.5072487545573</v>
       </c>
     </row>
     <row r="23">
@@ -5966,64 +5966,64 @@
         <v>1852.898304858633</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.965277078406</v>
+        <v>1567.965277078405</v>
       </c>
       <c r="D23" t="n">
-        <v>1293.729067631839</v>
+        <v>1293.729067631838</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9703041937785</v>
+        <v>991.9703041937782</v>
       </c>
       <c r="F23" t="n">
-        <v>665.0138885643547</v>
+        <v>665.0138885643546</v>
       </c>
       <c r="G23" t="n">
-        <v>332.1679501040687</v>
+        <v>332.1679501040685</v>
       </c>
       <c r="H23" t="n">
-        <v>100.1490959048111</v>
+        <v>100.149095904811</v>
       </c>
       <c r="I23" t="n">
         <v>72.67239756706685</v>
       </c>
       <c r="J23" t="n">
-        <v>186.3804915647651</v>
+        <v>278.9769255141358</v>
       </c>
       <c r="K23" t="n">
-        <v>616.3223042732113</v>
+        <v>708.9187382225821</v>
       </c>
       <c r="L23" t="n">
-        <v>1201.979768535957</v>
+        <v>978.7140887307249</v>
       </c>
       <c r="M23" t="n">
-        <v>1870.243087113667</v>
+        <v>1646.977407308435</v>
       </c>
       <c r="N23" t="n">
-        <v>2534.687607287941</v>
+        <v>2311.421927482709</v>
       </c>
       <c r="O23" t="n">
-        <v>3116.916088429528</v>
+        <v>2893.650408624296</v>
       </c>
       <c r="P23" t="n">
-        <v>3576.160243844354</v>
+        <v>3352.894564039122</v>
       </c>
       <c r="Q23" t="n">
-        <v>3633.619878353342</v>
+        <v>3620.546039301416</v>
       </c>
       <c r="R23" t="n">
         <v>3633.619878353342</v>
       </c>
       <c r="S23" t="n">
-        <v>3566.273350046304</v>
+        <v>3566.273350046303</v>
       </c>
       <c r="T23" t="n">
-        <v>3436.43255773563</v>
+        <v>3436.432557735629</v>
       </c>
       <c r="U23" t="n">
-        <v>3266.787331972413</v>
+        <v>3266.787331972412</v>
       </c>
       <c r="V23" t="n">
-        <v>3019.753933789026</v>
+        <v>3019.753933789025</v>
       </c>
       <c r="W23" t="n">
         <v>2751.014767679095</v>
@@ -6069,16 +6069,16 @@
         <v>201.8525814018324</v>
       </c>
       <c r="K24" t="n">
-        <v>549.2629342072121</v>
+        <v>287.4423495647592</v>
       </c>
       <c r="L24" t="n">
-        <v>1077.803422941278</v>
+        <v>448.8508964484002</v>
       </c>
       <c r="M24" t="n">
-        <v>1536.477207182302</v>
+        <v>1117.611938797058</v>
       </c>
       <c r="N24" t="n">
-        <v>1764.09642714868</v>
+        <v>1374.172731064718</v>
       </c>
       <c r="O24" t="n">
         <v>1950.10374919507</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>541.8882730845013</v>
+        <v>541.8882730845014</v>
       </c>
       <c r="C25" t="n">
-        <v>456.9815793167782</v>
+        <v>456.9815793167783</v>
       </c>
       <c r="D25" t="n">
-        <v>390.8944290646263</v>
+        <v>390.8944290646264</v>
       </c>
       <c r="E25" t="n">
-        <v>327.010824642417</v>
+        <v>327.0108246424171</v>
       </c>
       <c r="F25" t="n">
-        <v>264.1503663046905</v>
+        <v>264.1503663046906</v>
       </c>
       <c r="G25" t="n">
-        <v>179.668265218301</v>
+        <v>179.6682652183011</v>
       </c>
       <c r="H25" t="n">
         <v>110.2900126724898</v>
@@ -6145,19 +6145,19 @@
         <v>72.67239756706685</v>
       </c>
       <c r="J25" t="n">
-        <v>144.1113110469418</v>
+        <v>144.1113110469419</v>
       </c>
       <c r="K25" t="n">
-        <v>338.363183215891</v>
+        <v>338.3631832158911</v>
       </c>
       <c r="L25" t="n">
-        <v>619.4334455917985</v>
+        <v>619.4334455917987</v>
       </c>
       <c r="M25" t="n">
-        <v>921.6948257720394</v>
+        <v>921.6948257720395</v>
       </c>
       <c r="N25" t="n">
-        <v>1224.161994912538</v>
+        <v>1224.161994912539</v>
       </c>
       <c r="O25" t="n">
         <v>1493.810089541529</v>
@@ -6169,13 +6169,13 @@
         <v>1806.499518629447</v>
       </c>
       <c r="R25" t="n">
-        <v>1764.3340468116</v>
+        <v>1764.334046811601</v>
       </c>
       <c r="S25" t="n">
-        <v>1642.583281871181</v>
+        <v>1642.58328187118</v>
       </c>
       <c r="T25" t="n">
-        <v>1501.390571946279</v>
+        <v>1501.390571946278</v>
       </c>
       <c r="U25" t="n">
         <v>1296.273080398217</v>
@@ -6184,13 +6184,13 @@
         <v>1125.618081352514</v>
       </c>
       <c r="W25" t="n">
-        <v>920.2304004757373</v>
+        <v>920.230400475737</v>
       </c>
       <c r="X25" t="n">
-        <v>776.2703387379034</v>
+        <v>776.2703387379036</v>
       </c>
       <c r="Y25" t="n">
-        <v>639.5072487545572</v>
+        <v>639.5072487545571</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2006.74679019761</v>
+        <v>2006.746790197612</v>
       </c>
       <c r="C26" t="n">
-        <v>1700.756288167076</v>
+        <v>1700.756288167077</v>
       </c>
       <c r="D26" t="n">
-        <v>1405.462604470202</v>
+        <v>1405.462604470203</v>
       </c>
       <c r="E26" t="n">
-        <v>1082.646366781835</v>
+        <v>1082.646366781836</v>
       </c>
       <c r="F26" t="n">
-        <v>734.6324769021039</v>
+        <v>734.6324769021053</v>
       </c>
       <c r="G26" t="n">
-        <v>380.7290641915113</v>
+        <v>380.7290641915121</v>
       </c>
       <c r="H26" t="n">
-        <v>127.6527357419468</v>
+        <v>127.6527357419467</v>
       </c>
       <c r="I26" t="n">
-        <v>79.11856315389548</v>
+        <v>79.11856315389551</v>
       </c>
       <c r="J26" t="n">
-        <v>285.4230911009645</v>
+        <v>285.4230911009649</v>
       </c>
       <c r="K26" t="n">
-        <v>715.3649038094107</v>
+        <v>715.3649038094113</v>
       </c>
       <c r="L26" t="n">
-        <v>1301.022368072156</v>
+        <v>1301.022368072157</v>
       </c>
       <c r="M26" t="n">
-        <v>1969.285686649866</v>
+        <v>1969.285686649867</v>
       </c>
       <c r="N26" t="n">
         <v>2633.730206824141</v>
@@ -6245,31 +6245,31 @@
         <v>3675.202843380554</v>
       </c>
       <c r="Q26" t="n">
-        <v>3942.854318642848</v>
+        <v>3942.854318642849</v>
       </c>
       <c r="R26" t="n">
-        <v>3955.928157694774</v>
+        <v>3955.928157694775</v>
       </c>
       <c r="S26" t="n">
-        <v>3867.524155137429</v>
+        <v>3867.52415513743</v>
       </c>
       <c r="T26" t="n">
-        <v>3716.625888576448</v>
+        <v>3716.625888576449</v>
       </c>
       <c r="U26" t="n">
-        <v>3525.923188562924</v>
+        <v>3525.923188562926</v>
       </c>
       <c r="V26" t="n">
-        <v>3257.83231612923</v>
+        <v>3257.832316129232</v>
       </c>
       <c r="W26" t="n">
-        <v>2968.035675768993</v>
+        <v>2968.035675768995</v>
       </c>
       <c r="X26" t="n">
-        <v>2657.54193241779</v>
+        <v>2657.541932417792</v>
       </c>
       <c r="Y26" t="n">
-        <v>2330.374615351855</v>
+        <v>2330.374615351857</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>220.9301741337873</v>
       </c>
       <c r="H27" t="n">
-        <v>121.111521288017</v>
+        <v>121.1115212880171</v>
       </c>
       <c r="I27" t="n">
-        <v>79.11856315389548</v>
+        <v>79.11856315389551</v>
       </c>
       <c r="J27" t="n">
-        <v>208.298746988661</v>
+        <v>83.46862200165626</v>
       </c>
       <c r="K27" t="n">
-        <v>555.7090997940406</v>
+        <v>169.0583901645831</v>
       </c>
       <c r="L27" t="n">
-        <v>1084.249588528106</v>
+        <v>697.5988788986486</v>
       </c>
       <c r="M27" t="n">
-        <v>1291.962617764264</v>
+        <v>1360.976191543659</v>
       </c>
       <c r="N27" t="n">
-        <v>1519.581837730642</v>
+        <v>1588.595411510037</v>
       </c>
       <c r="O27" t="n">
-        <v>1956.549914781898</v>
+        <v>2164.526429640389</v>
       </c>
       <c r="P27" t="n">
-        <v>2401.78226412957</v>
+        <v>2609.758778988061</v>
       </c>
       <c r="Q27" t="n">
         <v>2646.710529357854</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>608.5921339210196</v>
+        <v>415.418931021297</v>
       </c>
       <c r="C28" t="n">
-        <v>502.6279659029893</v>
+        <v>415.418931021297</v>
       </c>
       <c r="D28" t="n">
-        <v>502.6279659029893</v>
+        <v>328.2743065188381</v>
       </c>
       <c r="E28" t="n">
-        <v>417.6868872304731</v>
+        <v>243.3332278463218</v>
       </c>
       <c r="F28" t="n">
-        <v>333.7689546424397</v>
+        <v>243.3332278463218</v>
       </c>
       <c r="G28" t="n">
-        <v>228.2293793057434</v>
+        <v>137.7936525096254</v>
       </c>
       <c r="H28" t="n">
-        <v>137.7936525096253</v>
+        <v>137.7936525096254</v>
       </c>
       <c r="I28" t="n">
-        <v>79.11856315389548</v>
+        <v>79.11856315389551</v>
       </c>
       <c r="J28" t="n">
         <v>129.9190461210446</v>
@@ -6388,16 +6388,16 @@
         <v>303.532487777268</v>
       </c>
       <c r="L28" t="n">
-        <v>563.9643196404498</v>
+        <v>563.9643196404497</v>
       </c>
       <c r="M28" t="n">
-        <v>845.5872693079648</v>
+        <v>845.5872693079647</v>
       </c>
       <c r="N28" t="n">
         <v>1127.416007935738</v>
       </c>
       <c r="O28" t="n">
-        <v>1376.425672052003</v>
+        <v>1376.425672052002</v>
       </c>
       <c r="P28" t="n">
         <v>1574.883489935775</v>
@@ -6409,25 +6409,25 @@
         <v>1584.615294046316</v>
       </c>
       <c r="S28" t="n">
-        <v>1441.80705485559</v>
+        <v>1441.807054855589</v>
       </c>
       <c r="T28" t="n">
-        <v>1279.556870680381</v>
+        <v>1279.55687068038</v>
       </c>
       <c r="U28" t="n">
-        <v>1053.381904882013</v>
+        <v>1053.381904882012</v>
       </c>
       <c r="V28" t="n">
-        <v>1053.381904882013</v>
+        <v>925.558072056884</v>
       </c>
       <c r="W28" t="n">
-        <v>1050.106684063176</v>
+        <v>699.1129169298003</v>
       </c>
       <c r="X28" t="n">
-        <v>885.0891480750355</v>
+        <v>534.0953809416599</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.2685838413823</v>
+        <v>534.0953809416599</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2006.746790197611</v>
+        <v>2006.74679019761</v>
       </c>
       <c r="C29" t="n">
-        <v>1700.756288167076</v>
+        <v>1700.756288167075</v>
       </c>
       <c r="D29" t="n">
-        <v>1405.462604470203</v>
+        <v>1405.462604470201</v>
       </c>
       <c r="E29" t="n">
-        <v>1082.646366781835</v>
+        <v>1082.646366781834</v>
       </c>
       <c r="F29" t="n">
-        <v>734.6324769021048</v>
+        <v>734.6324769021032</v>
       </c>
       <c r="G29" t="n">
-        <v>380.7290641915113</v>
+        <v>380.7290641915104</v>
       </c>
       <c r="H29" t="n">
-        <v>127.6527357419468</v>
+        <v>127.6527357419457</v>
       </c>
       <c r="I29" t="n">
         <v>79.11856315389548</v>
@@ -6473,7 +6473,7 @@
         <v>1969.285686649866</v>
       </c>
       <c r="N29" t="n">
-        <v>2633.73020682414</v>
+        <v>2633.730206824141</v>
       </c>
       <c r="O29" t="n">
         <v>3215.958687965727</v>
@@ -6503,10 +6503,10 @@
         <v>2968.035675768993</v>
       </c>
       <c r="X29" t="n">
-        <v>2657.541932417791</v>
+        <v>2657.54193241779</v>
       </c>
       <c r="Y29" t="n">
-        <v>2330.374615351856</v>
+        <v>2330.374615351855</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>1084.249588528106</v>
       </c>
       <c r="M30" t="n">
-        <v>1291.962617764264</v>
+        <v>1542.923372769131</v>
       </c>
       <c r="N30" t="n">
-        <v>1519.581837730642</v>
+        <v>1770.542592735509</v>
       </c>
       <c r="O30" t="n">
         <v>1956.549914781898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.75323661857</v>
+        <v>256.9326723849148</v>
       </c>
       <c r="C31" t="n">
-        <v>414.75323661857</v>
+        <v>256.9326723849148</v>
       </c>
       <c r="D31" t="n">
-        <v>414.75323661857</v>
+        <v>256.9326723849148</v>
       </c>
       <c r="E31" t="n">
-        <v>414.75323661857</v>
+        <v>171.9915937123985</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8353040305367</v>
+        <v>171.9915937123985</v>
       </c>
       <c r="G31" t="n">
-        <v>228.2293793057434</v>
+        <v>79.11856315389548</v>
       </c>
       <c r="H31" t="n">
-        <v>137.7936525096253</v>
+        <v>79.11856315389548</v>
       </c>
       <c r="I31" t="n">
         <v>79.11856315389548</v>
       </c>
       <c r="J31" t="n">
-        <v>129.9190461210447</v>
+        <v>129.9190461210446</v>
       </c>
       <c r="K31" t="n">
-        <v>303.5324877772681</v>
+        <v>303.5324877772679</v>
       </c>
       <c r="L31" t="n">
-        <v>563.96431964045</v>
+        <v>563.9643196404496</v>
       </c>
       <c r="M31" t="n">
-        <v>845.5872693079651</v>
+        <v>845.5872693079646</v>
       </c>
       <c r="N31" t="n">
         <v>1127.416007935738</v>
       </c>
       <c r="O31" t="n">
-        <v>1376.425672052003</v>
+        <v>1376.425672052002</v>
       </c>
       <c r="P31" t="n">
-        <v>1574.883489935775</v>
+        <v>1574.883489935774</v>
       </c>
       <c r="Q31" t="n">
-        <v>1647.83824011447</v>
+        <v>1647.838240114469</v>
       </c>
       <c r="R31" t="n">
-        <v>1647.83824011447</v>
+        <v>1647.838240114469</v>
       </c>
       <c r="S31" t="n">
-        <v>1505.030000923744</v>
+        <v>1505.030000923743</v>
       </c>
       <c r="T31" t="n">
-        <v>1342.779816748535</v>
+        <v>1342.779816748533</v>
       </c>
       <c r="U31" t="n">
-        <v>1116.604850950167</v>
+        <v>1116.604850950165</v>
       </c>
       <c r="V31" t="n">
-        <v>924.8923776541567</v>
+        <v>924.8923776541551</v>
       </c>
       <c r="W31" t="n">
-        <v>698.4472225270731</v>
+        <v>698.4472225270714</v>
       </c>
       <c r="X31" t="n">
-        <v>533.4296865389327</v>
+        <v>533.4296865389309</v>
       </c>
       <c r="Y31" t="n">
-        <v>533.4296865389327</v>
+        <v>375.6091223052777</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>78.0014762925187</v>
       </c>
       <c r="J32" t="n">
-        <v>229.5687480321257</v>
+        <v>284.3060042395877</v>
       </c>
       <c r="K32" t="n">
-        <v>659.5105607405719</v>
+        <v>714.2478169480339</v>
       </c>
       <c r="L32" t="n">
-        <v>1245.168025003318</v>
+        <v>1299.90528121078</v>
       </c>
       <c r="M32" t="n">
-        <v>1913.431343581027</v>
+        <v>1926.505182632954</v>
       </c>
       <c r="N32" t="n">
-        <v>2577.875863755301</v>
+        <v>2590.949702807228</v>
       </c>
       <c r="O32" t="n">
-        <v>3160.104344896889</v>
+        <v>3173.178183948815</v>
       </c>
       <c r="P32" t="n">
-        <v>3619.348500311714</v>
+        <v>3632.422339363641</v>
       </c>
       <c r="Q32" t="n">
-        <v>3886.999975574009</v>
+        <v>3900.073814625935</v>
       </c>
       <c r="R32" t="n">
         <v>3900.073814625935</v>
@@ -6777,25 +6777,25 @@
         <v>78.0014762925187</v>
       </c>
       <c r="J33" t="n">
-        <v>207.1816601272842</v>
+        <v>82.35153514027945</v>
       </c>
       <c r="K33" t="n">
-        <v>308.2120631038747</v>
+        <v>393.2104600369405</v>
       </c>
       <c r="L33" t="n">
-        <v>469.6206099875156</v>
+        <v>921.7509487710061</v>
       </c>
       <c r="M33" t="n">
-        <v>677.3336392236738</v>
+        <v>1590.511991119664</v>
       </c>
       <c r="N33" t="n">
-        <v>1379.50180979017</v>
+        <v>2292.68016168616</v>
       </c>
       <c r="O33" t="n">
-        <v>1955.432827920522</v>
+        <v>2478.68748373255</v>
       </c>
       <c r="P33" t="n">
-        <v>2400.665177268193</v>
+        <v>2608.641692126684</v>
       </c>
       <c r="Q33" t="n">
         <v>2645.593442496477</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>254.047251744628</v>
+        <v>428.6483469054826</v>
       </c>
       <c r="C34" t="n">
-        <v>254.047251744628</v>
+        <v>428.6483469054826</v>
       </c>
       <c r="D34" t="n">
-        <v>170.551777656</v>
+        <v>345.1528728168547</v>
       </c>
       <c r="E34" t="n">
-        <v>89.25984939731467</v>
+        <v>263.8609445581693</v>
       </c>
       <c r="F34" t="n">
-        <v>78.0014762925187</v>
+        <v>183.5921623839668</v>
       </c>
       <c r="G34" t="n">
-        <v>78.0014762925187</v>
+        <v>164.788052674806</v>
       </c>
       <c r="H34" t="n">
         <v>78.0014762925187</v>
@@ -6877,31 +6877,31 @@
         <v>1598.802129318567</v>
       </c>
       <c r="Q34" t="n">
-        <v>1675.333411817858</v>
+        <v>1675.333411817857</v>
       </c>
       <c r="R34" t="n">
-        <v>1615.759616163535</v>
+        <v>1675.333411817857</v>
       </c>
       <c r="S34" t="n">
-        <v>1476.60052738664</v>
+        <v>1536.174323040962</v>
       </c>
       <c r="T34" t="n">
-        <v>1317.999493625261</v>
+        <v>1377.573289279584</v>
       </c>
       <c r="U34" t="n">
-        <v>1095.473678240724</v>
+        <v>1155.047473895047</v>
       </c>
       <c r="V34" t="n">
-        <v>907.4103553585446</v>
+        <v>966.9841510128674</v>
       </c>
       <c r="W34" t="n">
-        <v>684.6143506452918</v>
+        <v>744.1881462996146</v>
       </c>
       <c r="X34" t="n">
-        <v>523.2459650709823</v>
+        <v>582.8197607253049</v>
       </c>
       <c r="Y34" t="n">
-        <v>369.0745512511599</v>
+        <v>428.6483469054826</v>
       </c>
     </row>
     <row r="35">
@@ -6920,49 +6920,49 @@
         <v>1293.729067631839</v>
       </c>
       <c r="E35" t="n">
-        <v>991.9703041937784</v>
+        <v>991.9703041937788</v>
       </c>
       <c r="F35" t="n">
-        <v>665.0138885643546</v>
+        <v>665.0138885643551</v>
       </c>
       <c r="G35" t="n">
-        <v>332.1679501040685</v>
+        <v>332.1679501040689</v>
       </c>
       <c r="H35" t="n">
         <v>100.1490959048111</v>
       </c>
       <c r="I35" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706687</v>
       </c>
       <c r="J35" t="n">
-        <v>278.9769255141358</v>
+        <v>173.3066525128396</v>
       </c>
       <c r="K35" t="n">
-        <v>708.9187382225821</v>
+        <v>603.2484652212859</v>
       </c>
       <c r="L35" t="n">
-        <v>1294.576202485328</v>
+        <v>1188.905929484032</v>
       </c>
       <c r="M35" t="n">
-        <v>1962.839521063038</v>
+        <v>1857.169248061741</v>
       </c>
       <c r="N35" t="n">
-        <v>2324.495766534635</v>
+        <v>2521.613768236015</v>
       </c>
       <c r="O35" t="n">
-        <v>2906.724247676222</v>
+        <v>3103.842249377602</v>
       </c>
       <c r="P35" t="n">
-        <v>3365.968403091048</v>
+        <v>3563.086404792428</v>
       </c>
       <c r="Q35" t="n">
-        <v>3633.619878353342</v>
+        <v>3620.546039301417</v>
       </c>
       <c r="R35" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353343</v>
       </c>
       <c r="S35" t="n">
-        <v>3566.273350046304</v>
+        <v>3566.273350046305</v>
       </c>
       <c r="T35" t="n">
         <v>3436.43255773563</v>
@@ -7011,22 +7011,22 @@
         <v>114.6653557011884</v>
       </c>
       <c r="I36" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706687</v>
       </c>
       <c r="J36" t="n">
-        <v>201.8525814018324</v>
+        <v>77.02245641482762</v>
       </c>
       <c r="K36" t="n">
-        <v>549.2629342072121</v>
+        <v>162.6122245777545</v>
       </c>
       <c r="L36" t="n">
-        <v>1077.803422941278</v>
+        <v>477.792468749682</v>
       </c>
       <c r="M36" t="n">
-        <v>1536.477207182302</v>
+        <v>1146.55351109834</v>
       </c>
       <c r="N36" t="n">
-        <v>1764.09642714868</v>
+        <v>1374.172731064718</v>
       </c>
       <c r="O36" t="n">
         <v>1950.10374919507</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>541.8882730845013</v>
+        <v>541.8882730845017</v>
       </c>
       <c r="C37" t="n">
-        <v>456.9815793167782</v>
+        <v>456.9815793167786</v>
       </c>
       <c r="D37" t="n">
-        <v>390.8944290646263</v>
+        <v>390.8944290646266</v>
       </c>
       <c r="E37" t="n">
-        <v>327.010824642417</v>
+        <v>327.0108246424173</v>
       </c>
       <c r="F37" t="n">
-        <v>264.1503663046905</v>
+        <v>264.1503663046907</v>
       </c>
       <c r="G37" t="n">
-        <v>179.668265218301</v>
+        <v>179.6682652183013</v>
       </c>
       <c r="H37" t="n">
-        <v>110.2900126724898</v>
+        <v>110.2900126724899</v>
       </c>
       <c r="I37" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706687</v>
       </c>
       <c r="J37" t="n">
         <v>144.1113110469418</v>
       </c>
       <c r="K37" t="n">
-        <v>338.3631832158908</v>
+        <v>338.3631832158913</v>
       </c>
       <c r="L37" t="n">
-        <v>619.4334455917982</v>
+        <v>619.4334455917989</v>
       </c>
       <c r="M37" t="n">
-        <v>921.6948257720389</v>
+        <v>921.6948257720395</v>
       </c>
       <c r="N37" t="n">
-        <v>1224.161994912538</v>
+        <v>1224.161994912539</v>
       </c>
       <c r="O37" t="n">
-        <v>1493.810089541528</v>
+        <v>1493.810089541529</v>
       </c>
       <c r="P37" t="n">
         <v>1712.906337938027</v>
@@ -7132,13 +7132,13 @@
         <v>1125.618081352514</v>
       </c>
       <c r="W37" t="n">
-        <v>920.230400475737</v>
+        <v>920.2304004757373</v>
       </c>
       <c r="X37" t="n">
-        <v>776.2703387379036</v>
+        <v>776.2703387379037</v>
       </c>
       <c r="Y37" t="n">
-        <v>639.5072487545572</v>
+        <v>639.5072487545576</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1852.898304858633</v>
+        <v>1852.898304858634</v>
       </c>
       <c r="C38" t="n">
         <v>1567.965277078406</v>
@@ -7157,46 +7157,46 @@
         <v>1293.729067631839</v>
       </c>
       <c r="E38" t="n">
-        <v>991.9703041937782</v>
+        <v>991.970304193779</v>
       </c>
       <c r="F38" t="n">
-        <v>665.0138885643546</v>
+        <v>665.0138885643553</v>
       </c>
       <c r="G38" t="n">
-        <v>332.1679501040687</v>
+        <v>332.1679501040691</v>
       </c>
       <c r="H38" t="n">
         <v>100.1490959048111</v>
       </c>
       <c r="I38" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706687</v>
       </c>
       <c r="J38" t="n">
-        <v>111.5712764937828</v>
+        <v>278.9769255141358</v>
       </c>
       <c r="K38" t="n">
-        <v>541.513089202229</v>
+        <v>708.9187382225821</v>
       </c>
       <c r="L38" t="n">
-        <v>1127.170553464975</v>
+        <v>1294.576202485328</v>
       </c>
       <c r="M38" t="n">
-        <v>1795.433872042685</v>
+        <v>1962.839521063038</v>
       </c>
       <c r="N38" t="n">
-        <v>2459.878392216959</v>
+        <v>2311.42192748271</v>
       </c>
       <c r="O38" t="n">
-        <v>3042.106873358546</v>
+        <v>2893.650408624297</v>
       </c>
       <c r="P38" t="n">
-        <v>3501.351028773372</v>
+        <v>3352.894564039123</v>
       </c>
       <c r="Q38" t="n">
-        <v>3633.619878353342</v>
+        <v>3620.546039301417</v>
       </c>
       <c r="R38" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353343</v>
       </c>
       <c r="S38" t="n">
         <v>3566.273350046304</v>
@@ -7211,13 +7211,13 @@
         <v>3019.753933789026</v>
       </c>
       <c r="W38" t="n">
-        <v>2751.014767679095</v>
+        <v>2751.014767679096</v>
       </c>
       <c r="X38" t="n">
-        <v>2461.578498578199</v>
+        <v>2461.5784985782</v>
       </c>
       <c r="Y38" t="n">
-        <v>2155.468655762571</v>
+        <v>2155.468655762572</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>114.6653557011884</v>
       </c>
       <c r="I39" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706687</v>
       </c>
       <c r="J39" t="n">
         <v>201.8525814018324</v>
@@ -7263,10 +7263,10 @@
         <v>1285.516452177436</v>
       </c>
       <c r="N39" t="n">
-        <v>1513.135672143814</v>
+        <v>1987.684622743932</v>
       </c>
       <c r="O39" t="n">
-        <v>1950.10374919507</v>
+        <v>2173.691944790321</v>
       </c>
       <c r="P39" t="n">
         <v>2395.336098542742</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>541.8882730845007</v>
+        <v>541.8882730845013</v>
       </c>
       <c r="C40" t="n">
-        <v>456.9815793167776</v>
+        <v>456.9815793167782</v>
       </c>
       <c r="D40" t="n">
-        <v>390.8944290646256</v>
+        <v>390.8944290646262</v>
       </c>
       <c r="E40" t="n">
-        <v>327.0108246424163</v>
+        <v>327.0108246424169</v>
       </c>
       <c r="F40" t="n">
-        <v>264.1503663046897</v>
+        <v>264.1503663046903</v>
       </c>
       <c r="G40" t="n">
-        <v>179.6682652183002</v>
+        <v>179.6682652183008</v>
       </c>
       <c r="H40" t="n">
-        <v>110.290012672489</v>
+        <v>110.2900126724899</v>
       </c>
       <c r="I40" t="n">
-        <v>72.67239756706685</v>
+        <v>72.67239756706687</v>
       </c>
       <c r="J40" t="n">
-        <v>144.1113110469418</v>
+        <v>144.1113110469416</v>
       </c>
       <c r="K40" t="n">
-        <v>338.363183215891</v>
+        <v>338.3631832158908</v>
       </c>
       <c r="L40" t="n">
-        <v>619.4334455917985</v>
+        <v>619.4334455917983</v>
       </c>
       <c r="M40" t="n">
         <v>921.6948257720392</v>
@@ -7351,7 +7351,7 @@
         <v>1712.906337938026</v>
       </c>
       <c r="Q40" t="n">
-        <v>1806.499518629447</v>
+        <v>1806.499518629446</v>
       </c>
       <c r="R40" t="n">
         <v>1764.3340468116</v>
@@ -7375,7 +7375,7 @@
         <v>776.2703387379033</v>
       </c>
       <c r="Y40" t="n">
-        <v>639.5072487545567</v>
+        <v>639.5072487545572</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1852.898304858633</v>
       </c>
       <c r="C41" t="n">
-        <v>1567.965277078405</v>
+        <v>1567.965277078406</v>
       </c>
       <c r="D41" t="n">
-        <v>1293.729067631838</v>
+        <v>1293.729067631839</v>
       </c>
       <c r="E41" t="n">
-        <v>991.9703041937781</v>
+        <v>991.9703041937786</v>
       </c>
       <c r="F41" t="n">
-        <v>665.0138885643544</v>
+        <v>665.0138885643548</v>
       </c>
       <c r="G41" t="n">
-        <v>332.1679501040682</v>
+        <v>332.1679501040687</v>
       </c>
       <c r="H41" t="n">
         <v>100.1490959048111</v>
@@ -7409,31 +7409,31 @@
         <v>72.67239756706685</v>
       </c>
       <c r="J41" t="n">
-        <v>278.9769255141358</v>
+        <v>111.5712764937828</v>
       </c>
       <c r="K41" t="n">
-        <v>708.918738222582</v>
+        <v>406.1304635199059</v>
       </c>
       <c r="L41" t="n">
-        <v>1294.576202485328</v>
+        <v>991.7879277826518</v>
       </c>
       <c r="M41" t="n">
-        <v>1646.977407308435</v>
+        <v>1660.051246360362</v>
       </c>
       <c r="N41" t="n">
-        <v>2311.421927482709</v>
+        <v>2324.495766534636</v>
       </c>
       <c r="O41" t="n">
-        <v>2893.650408624296</v>
+        <v>2906.724247676223</v>
       </c>
       <c r="P41" t="n">
-        <v>3352.894564039122</v>
+        <v>3365.968403091048</v>
       </c>
       <c r="Q41" t="n">
-        <v>3620.546039301416</v>
+        <v>3633.619878353343</v>
       </c>
       <c r="R41" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353343</v>
       </c>
       <c r="S41" t="n">
         <v>3566.273350046304</v>
@@ -7442,10 +7442,10 @@
         <v>3436.43255773563</v>
       </c>
       <c r="U41" t="n">
-        <v>3266.787331972412</v>
+        <v>3266.787331972413</v>
       </c>
       <c r="V41" t="n">
-        <v>3019.753933789025</v>
+        <v>3019.753933789026</v>
       </c>
       <c r="W41" t="n">
         <v>2751.014767679095</v>
@@ -7488,25 +7488,25 @@
         <v>72.67239756706685</v>
       </c>
       <c r="J42" t="n">
-        <v>201.8525814018323</v>
+        <v>77.0224564148276</v>
       </c>
       <c r="K42" t="n">
-        <v>549.262934207212</v>
+        <v>162.6122245777545</v>
       </c>
       <c r="L42" t="n">
-        <v>1077.803422941277</v>
+        <v>685.7689836081722</v>
       </c>
       <c r="M42" t="n">
-        <v>1285.516452177435</v>
+        <v>1354.53002595683</v>
       </c>
       <c r="N42" t="n">
-        <v>1513.135672143814</v>
+        <v>1582.149245923209</v>
       </c>
       <c r="O42" t="n">
-        <v>1950.10374919507</v>
+        <v>2158.08026405356</v>
       </c>
       <c r="P42" t="n">
-        <v>2395.336098542742</v>
+        <v>2603.312613401232</v>
       </c>
       <c r="Q42" t="n">
         <v>2640.264363771025</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.8882730845015</v>
+        <v>541.8882730845016</v>
       </c>
       <c r="C43" t="n">
-        <v>456.9815793167784</v>
+        <v>456.9815793167785</v>
       </c>
       <c r="D43" t="n">
         <v>390.8944290646265</v>
@@ -7576,7 +7576,7 @@
         <v>619.4334455917985</v>
       </c>
       <c r="M43" t="n">
-        <v>921.6948257720394</v>
+        <v>921.6948257720393</v>
       </c>
       <c r="N43" t="n">
         <v>1224.161994912538</v>
@@ -7600,19 +7600,19 @@
         <v>1501.390571946278</v>
       </c>
       <c r="U43" t="n">
-        <v>1296.273080398217</v>
+        <v>1296.273080398218</v>
       </c>
       <c r="V43" t="n">
-        <v>1125.618081352514</v>
+        <v>1125.618081352515</v>
       </c>
       <c r="W43" t="n">
-        <v>920.230400475737</v>
+        <v>920.2304004757381</v>
       </c>
       <c r="X43" t="n">
-        <v>776.2703387379034</v>
+        <v>776.2703387379045</v>
       </c>
       <c r="Y43" t="n">
-        <v>639.5072487545573</v>
+        <v>639.5072487545576</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1293.729067631839</v>
       </c>
       <c r="E44" t="n">
-        <v>991.9703041937786</v>
+        <v>991.9703041937784</v>
       </c>
       <c r="F44" t="n">
-        <v>665.0138885643548</v>
+        <v>665.0138885643546</v>
       </c>
       <c r="G44" t="n">
-        <v>332.1679501040687</v>
+        <v>332.1679501040685</v>
       </c>
       <c r="H44" t="n">
         <v>100.1490959048111</v>
@@ -7646,31 +7646,31 @@
         <v>72.67239756706685</v>
       </c>
       <c r="J44" t="n">
-        <v>278.9769255141358</v>
+        <v>111.5712764937828</v>
       </c>
       <c r="K44" t="n">
-        <v>708.918738222582</v>
+        <v>541.513089202229</v>
       </c>
       <c r="L44" t="n">
-        <v>1294.576202485328</v>
+        <v>1127.170553464975</v>
       </c>
       <c r="M44" t="n">
-        <v>1962.839521063038</v>
+        <v>1795.433872042685</v>
       </c>
       <c r="N44" t="n">
-        <v>2627.284041237312</v>
+        <v>2459.878392216959</v>
       </c>
       <c r="O44" t="n">
-        <v>3209.512522378899</v>
+        <v>3042.106873358546</v>
       </c>
       <c r="P44" t="n">
-        <v>3576.160243844354</v>
+        <v>3365.968403091048</v>
       </c>
       <c r="Q44" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353343</v>
       </c>
       <c r="R44" t="n">
-        <v>3633.619878353342</v>
+        <v>3633.619878353343</v>
       </c>
       <c r="S44" t="n">
         <v>3566.273350046304</v>
@@ -7725,16 +7725,16 @@
         <v>72.67239756706685</v>
       </c>
       <c r="J45" t="n">
-        <v>201.8525814018323</v>
+        <v>201.8525814018324</v>
       </c>
       <c r="K45" t="n">
-        <v>549.262934207212</v>
+        <v>549.2629342072121</v>
       </c>
       <c r="L45" t="n">
-        <v>1077.803422941277</v>
+        <v>1077.803422941278</v>
       </c>
       <c r="M45" t="n">
-        <v>1285.516452177435</v>
+        <v>1285.516452177436</v>
       </c>
       <c r="N45" t="n">
         <v>1513.135672143814</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>541.8882730845011</v>
+        <v>541.8882730845012</v>
       </c>
       <c r="C46" t="n">
         <v>456.981579316778</v>
       </c>
       <c r="D46" t="n">
-        <v>390.894429064626</v>
+        <v>390.8944290646261</v>
       </c>
       <c r="E46" t="n">
-        <v>327.0108246424167</v>
+        <v>327.0108246424172</v>
       </c>
       <c r="F46" t="n">
-        <v>264.1503663046901</v>
+        <v>264.1503663046906</v>
       </c>
       <c r="G46" t="n">
-        <v>179.6682652183006</v>
+        <v>179.6682652183011</v>
       </c>
       <c r="H46" t="n">
         <v>110.2900126724899</v>
@@ -7810,10 +7810,10 @@
         <v>338.3631832158908</v>
       </c>
       <c r="L46" t="n">
-        <v>619.4334455917982</v>
+        <v>619.4334455917983</v>
       </c>
       <c r="M46" t="n">
-        <v>921.6948257720389</v>
+        <v>921.6948257720392</v>
       </c>
       <c r="N46" t="n">
         <v>1224.161994912538</v>
@@ -7849,7 +7849,7 @@
         <v>776.2703387379036</v>
       </c>
       <c r="Y46" t="n">
-        <v>639.5072487545569</v>
+        <v>639.5072487545571</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>244.6749789590202</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N2" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>255.7185026163176</v>
       </c>
       <c r="P2" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8067,13 +8067,13 @@
         <v>167.7543251166491</v>
       </c>
       <c r="N3" t="n">
-        <v>155.926839997373</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P3" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8222,7 +8222,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>255.9665244219036</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N5" t="n">
         <v>255.0333547912217</v>
@@ -8231,7 +8231,7 @@
         <v>255.7185026163176</v>
       </c>
       <c r="P5" t="n">
-        <v>255.8181236693092</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>163.4617301689898</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M6" t="n">
-        <v>166.719161836058</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N6" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>180.5807728421703</v>
@@ -8550,7 +8550,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>130.4608933366669</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8708,10 +8708,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.56486370806266</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>52.51052184073336</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>253.4957121261279</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.43159344766872</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>15.95196604756603</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.35896567581379</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>52.51052184073336</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>130.4608933366679</v>
+        <v>312.7634065409895</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>52.51052184073336</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>253.4957121261279</v>
       </c>
       <c r="O18" t="n">
-        <v>253.4957121261279</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>75.56486370806294</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>187.3952856193225</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>52.51052184073336</v>
+        <v>52.51052184073342</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>253.4957121261283</v>
       </c>
       <c r="O21" t="n">
-        <v>253.4957121261279</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>75.56486370806294</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>98.60857439428577</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>52.51052184073336</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>253.4957121261277</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>29.23391141543615</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>460.2669529382345</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>253.4957121261279</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>253.4957121261277</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>253.4957121261279</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>113.8064573867586</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>407.4292737397661</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>52.51052184073336</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>15.59660082188246</v>
+        <v>227.5446027613476</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>62.35896567581499</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>131.5001822880683</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.51052184073336</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>155.324946755845</v>
       </c>
       <c r="M36" t="n">
-        <v>253.4957121261277</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>118.2942842558203</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>75.56486370806266</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>52.51052184073336</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>253.4957121261279</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>92.61610642251125</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>187.3952856193232</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>130.4608933366679</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>52.51052184073336</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>365.4022344916938</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>253.4957121261282</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>228.2669567074718</v>
+        <v>185.0485812196411</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>52.51052184073339</v>
+        <v>52.51052184073336</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>253.4957121261282</v>
+        <v>253.4957121261279</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>358.3104846732425</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>23.3059026312844</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>382.4526887514734</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.4645029356089</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.96776863271064</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>125.4389003023123</v>
+        <v>125.4389003023121</v>
       </c>
       <c r="T11" t="n">
-        <v>146.8813593374445</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>226.7146107839289</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.24925831463344</v>
+        <v>51.16995036564506</v>
       </c>
       <c r="C13" t="n">
-        <v>142.8234641083899</v>
+        <v>142.8234641083897</v>
       </c>
       <c r="D13" t="n">
-        <v>124.1921160279744</v>
+        <v>124.1921160279743</v>
       </c>
       <c r="E13" t="n">
-        <v>122.0106056563312</v>
+        <v>122.0106056563311</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.9976910326932</v>
       </c>
       <c r="G13" t="n">
-        <v>142.4031173538696</v>
+        <v>142.4031173538694</v>
       </c>
       <c r="H13" t="n">
-        <v>127.4503072986971</v>
+        <v>127.450307298697</v>
       </c>
       <c r="I13" t="n">
-        <v>96.00727623271274</v>
+        <v>96.00727623271263</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>100.5096543780122</v>
+        <v>100.5096543780121</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>179.2990945693589</v>
       </c>
       <c r="T13" t="n">
-        <v>198.5466201039974</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>261.8321539109247</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>194.1612963618567</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.3104846732426</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>340.8495347807695</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>382.4526887514733</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.96776863271067</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>182.3275397211477</v>
+        <v>88.24949006380045</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>324.8176117271749</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.4086231916993</v>
+        <v>155.4086231916992</v>
       </c>
       <c r="C16" t="n">
-        <v>142.8234641083899</v>
+        <v>142.8234641083897</v>
       </c>
       <c r="D16" t="n">
-        <v>124.1921160279744</v>
+        <v>124.1921160279743</v>
       </c>
       <c r="E16" t="n">
-        <v>122.0106056563312</v>
+        <v>122.0106056563311</v>
       </c>
       <c r="F16" t="n">
-        <v>120.9976910326933</v>
+        <v>120.9976910326932</v>
       </c>
       <c r="G16" t="n">
-        <v>142.4031173538696</v>
+        <v>142.4031173538694</v>
       </c>
       <c r="H16" t="n">
-        <v>127.4503072986971</v>
+        <v>3.964108938004344</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.00727623271263</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>92.27825778467223</v>
+        <v>100.5096543780121</v>
       </c>
       <c r="S16" t="n">
-        <v>179.299094569359</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>198.5466201039973</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.1612963618568</v>
+        <v>194.1612963618567</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.280975338581081e-12</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>104.9045263378497</v>
       </c>
       <c r="D28" t="n">
-        <v>86.27317825743418</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.07875326215316</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>89.53136952815701</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>189.7953485630498</v>
+        <v>63.24975406617331</v>
       </c>
       <c r="W28" t="n">
-        <v>220.9382349651644</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>156.2423585913167</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>104.9045263378496</v>
+        <v>104.9045263378497</v>
       </c>
       <c r="D31" t="n">
-        <v>86.27317825743414</v>
+        <v>86.27317825743427</v>
       </c>
       <c r="E31" t="n">
-        <v>84.09166788579095</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.07875326215316</v>
       </c>
       <c r="G31" t="n">
-        <v>2.904314105783698</v>
+        <v>12.53987933041145</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>89.53136952815701</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>58.08833846217264</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>62.59071660747195</v>
+        <v>62.59071660747207</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>156.2423585913166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>113.8770265114666</v>
       </c>
       <c r="C34" t="n">
         <v>101.2918674281571</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.32030497871256</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>100.8715206736369</v>
+        <v>82.25545206156733</v>
       </c>
       <c r="H34" t="n">
-        <v>85.9187106184644</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>54.47567955248004</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>58.97805769777948</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.121147867408581e-13</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>843035.1567995045</v>
+        <v>843035.1567995046</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954610.4812314699</v>
+        <v>954610.4812314698</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>948136.8543165078</v>
+        <v>948136.8543165077</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>948136.8543165078</v>
+        <v>948136.8543165076</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>949258.7000827623</v>
+        <v>949258.7000827622</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
         <v>484144.2700150645</v>
@@ -26332,13 +26332,13 @@
         <v>554203.1946583914</v>
       </c>
       <c r="I2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="J2" t="n">
-        <v>546151.6851174639</v>
+        <v>546151.6851174644</v>
       </c>
       <c r="K2" t="n">
-        <v>546151.6851174647</v>
+        <v>546151.6851174642</v>
       </c>
       <c r="L2" t="n">
         <v>547546.9697097179</v>
@@ -26347,13 +26347,13 @@
         <v>554203.1946583911</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="O2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47012.66982267519</v>
+        <v>47012.6698226751</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>30647.06831527773</v>
+        <v>30647.06831527781</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2861.165985947355</v>
+        <v>2861.165985947366</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>392795.5642185675</v>
       </c>
       <c r="E4" t="n">
-        <v>97305.00754466371</v>
+        <v>97305.00754466382</v>
       </c>
       <c r="F4" t="n">
-        <v>97305.00754466372</v>
+        <v>97305.00754466382</v>
       </c>
       <c r="G4" t="n">
-        <v>156690.5731092165</v>
+        <v>156690.5731092164</v>
       </c>
       <c r="H4" t="n">
         <v>156690.5731092165</v>
@@ -26442,7 +26442,7 @@
         <v>142011.0703823832</v>
       </c>
       <c r="K4" t="n">
-        <v>142011.0703823833</v>
+        <v>142011.0703823832</v>
       </c>
       <c r="L4" t="n">
         <v>144554.9516101935</v>
@@ -26451,10 +26451,10 @@
         <v>156690.5731092165</v>
       </c>
       <c r="N4" t="n">
-        <v>156690.5731092164</v>
+        <v>156690.5731092165</v>
       </c>
       <c r="O4" t="n">
-        <v>156690.5731092164</v>
+        <v>156690.5731092165</v>
       </c>
       <c r="P4" t="n">
         <v>156690.5731092165</v>
@@ -26476,34 +26476,34 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>71362.07633236721</v>
+        <v>71362.0763323672</v>
       </c>
       <c r="F5" t="n">
-        <v>71362.07633236721</v>
+        <v>71362.0763323672</v>
       </c>
       <c r="G5" t="n">
-        <v>76302.46150652031</v>
+        <v>76302.4615065203</v>
       </c>
       <c r="H5" t="n">
-        <v>76302.46150652031</v>
+        <v>76302.4615065203</v>
       </c>
       <c r="I5" t="n">
         <v>76302.46150652031</v>
       </c>
       <c r="J5" t="n">
-        <v>79448.96935778852</v>
+        <v>79448.96935778853</v>
       </c>
       <c r="K5" t="n">
-        <v>79448.96935778852</v>
+        <v>79448.9693577885</v>
       </c>
       <c r="L5" t="n">
         <v>78903.69596502111</v>
       </c>
       <c r="M5" t="n">
-        <v>76302.46150652031</v>
+        <v>76302.46150652033</v>
       </c>
       <c r="N5" t="n">
-        <v>76302.46150652031</v>
+        <v>76302.46150652033</v>
       </c>
       <c r="O5" t="n">
         <v>76302.46150652031</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115338.4675324598</v>
+        <v>115338.4675324596</v>
       </c>
       <c r="C6" t="n">
-        <v>123924.4163784781</v>
+        <v>123924.416378478</v>
       </c>
       <c r="D6" t="n">
-        <v>121035.8220736756</v>
+        <v>121035.8220736757</v>
       </c>
       <c r="E6" t="n">
-        <v>-482286.6922368771</v>
+        <v>-482546.1697355562</v>
       </c>
       <c r="F6" t="n">
-        <v>315477.1861380336</v>
+        <v>315217.7086393544</v>
       </c>
       <c r="G6" t="n">
-        <v>274197.4902199791</v>
+        <v>274197.4902199792</v>
       </c>
       <c r="H6" t="n">
-        <v>321210.1600426546</v>
+        <v>321210.1600426547</v>
       </c>
       <c r="I6" t="n">
-        <v>321210.1600426548</v>
+        <v>321210.1600426544</v>
       </c>
       <c r="J6" t="n">
-        <v>294044.5770620144</v>
+        <v>294014.7566563077</v>
       </c>
       <c r="K6" t="n">
-        <v>324691.6453772929</v>
+        <v>324661.8249715854</v>
       </c>
       <c r="L6" t="n">
-        <v>274185.5251840741</v>
+        <v>274160.872499079</v>
       </c>
       <c r="M6" t="n">
         <v>107509.422680991</v>
       </c>
       <c r="N6" t="n">
-        <v>321210.1600426546</v>
+        <v>321210.1600426543</v>
       </c>
       <c r="O6" t="n">
-        <v>318348.9940567069</v>
+        <v>318348.9940567068</v>
       </c>
       <c r="P6" t="n">
-        <v>321210.1600426544</v>
+        <v>321210.1600426545</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="F2" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="G2" t="n">
         <v>83.18919426858197</v>
       </c>
       <c r="H2" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="I2" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="J2" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="K2" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="L2" t="n">
         <v>65.95495367047069</v>
       </c>
       <c r="M2" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="N2" t="n">
         <v>83.18919426858193</v>
       </c>
       <c r="O2" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="P2" t="n">
         <v>83.18919426858194</v>
@@ -26753,7 +26753,7 @@
         <v>645.7709625038575</v>
       </c>
       <c r="H3" t="n">
-        <v>645.7709625038575</v>
+        <v>645.7709625038573</v>
       </c>
       <c r="I3" t="n">
         <v>645.7709625038575</v>
@@ -26774,10 +26774,10 @@
         <v>645.7709625038575</v>
       </c>
       <c r="O3" t="n">
-        <v>645.7709625038574</v>
+        <v>645.7709625038575</v>
       </c>
       <c r="P3" t="n">
-        <v>645.7709625038574</v>
+        <v>645.7709625038575</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>908.4049695883356</v>
+        <v>908.4049695883353</v>
       </c>
       <c r="F4" t="n">
-        <v>908.4049695883356</v>
+        <v>908.4049695883353</v>
       </c>
       <c r="G4" t="n">
-        <v>908.4049695883356</v>
+        <v>908.4049695883353</v>
       </c>
       <c r="H4" t="n">
-        <v>908.4049695883356</v>
+        <v>908.4049695883353</v>
       </c>
       <c r="I4" t="n">
         <v>908.4049695883356</v>
       </c>
       <c r="J4" t="n">
-        <v>988.9820394236935</v>
+        <v>988.9820394236938</v>
       </c>
       <c r="K4" t="n">
         <v>988.9820394236935</v>
@@ -26820,16 +26820,16 @@
         <v>975.0184536564838</v>
       </c>
       <c r="M4" t="n">
-        <v>908.4049695883356</v>
+        <v>908.4049695883358</v>
       </c>
       <c r="N4" t="n">
-        <v>908.4049695883356</v>
+        <v>908.4049695883358</v>
       </c>
       <c r="O4" t="n">
-        <v>908.4049695883356</v>
+        <v>908.4049695883357</v>
       </c>
       <c r="P4" t="n">
-        <v>908.4049695883356</v>
+        <v>908.4049695883357</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>58.76583727834399</v>
+        <v>58.76583727834387</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.576457482434179</v>
+        <v>3.576457482434208</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>62.37849618803646</v>
       </c>
       <c r="M2" t="n">
-        <v>17.23424059811128</v>
+        <v>17.23424059811127</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.576457482434193</v>
+        <v>3.576457482434208</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>13.96358576720975</v>
       </c>
       <c r="E4" t="n">
-        <v>868.821092626495</v>
+        <v>868.8210926264948</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>106.1973610299888</v>
+        <v>106.197361029989</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>58.76583727834399</v>
+        <v>58.76583727834387</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.576457482434179</v>
+        <v>3.576457482434208</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>13.96358576720975</v>
       </c>
       <c r="M4" t="n">
-        <v>868.821092626495</v>
+        <v>868.8210926264948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>361.2050199181497</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F2" t="n">
-        <v>381.2557545470806</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>389.6824463205042</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>373.6622853863676</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>115.5237560052377</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I3" t="n">
-        <v>63.77634165678425</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,7 +27515,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>210.9808259914523</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27546,22 +27546,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>119.8007568283004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>142.3706881638279</v>
       </c>
       <c r="H4" t="n">
-        <v>139.6608200232087</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I4" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>62.96633213382209</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27622,22 +27622,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>370.9864524776925</v>
       </c>
       <c r="F5" t="n">
         <v>381.2557545470806</v>
       </c>
       <c r="G5" t="n">
-        <v>389.6824463205042</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>187.9095370861751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465188</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678424</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>203.375029596744</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>229.8752220029466</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.2116889873065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>141.626529903997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9951818235815</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.1371019882212</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204194</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27813,16 +27813,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>200.8208869191</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>341.7575513618511</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,13 +27868,13 @@
         <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
-        <v>314.6000225023228</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>118.0612034935604</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>191.8224945792435</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C10" t="n">
-        <v>159.9907094724701</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D10" t="n">
-        <v>109.0315960563718</v>
+        <v>138.6379206569481</v>
       </c>
       <c r="E10" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="C11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="D11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="E11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="F11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="G11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="H11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="I11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="T11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="U11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="V11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="W11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="X11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="C13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="D13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="E13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="F13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="G13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="H13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="I13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="J13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="K13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="L13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="M13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="N13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="O13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="P13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="R13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="S13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="T13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="U13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="V13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="W13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="X13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="C14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="D14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="E14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="F14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="G14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="H14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="I14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="T14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="U14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="V14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="W14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="X14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="C16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="D16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="E16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="F16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="G16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="H16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="I16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="J16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="K16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="L16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="M16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="N16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="O16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="P16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="R16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="S16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="T16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="U16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="V16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="W16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="X16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.42335699023798</v>
+        <v>24.4233569902381</v>
       </c>
     </row>
     <row r="17">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="C20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="D20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="E20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="F20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="G20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="H20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="I20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="T20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="U20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="V20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="W20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="X20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="C22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="D22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="E22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="F22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="G22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="H22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="I22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="J22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="K22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="L22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="M22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="N22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="O22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="P22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="R22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="S22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="T22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="U22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="V22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="W22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="X22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="C23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="D23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="E23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="F23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="G23" t="n">
-        <v>83.18919426858213</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="H23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="I23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="T23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="U23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="V23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="W23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="X23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="C25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="D25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="E25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="F25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="G25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="H25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="I25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="J25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="K25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="L25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="M25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="N25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="O25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="P25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="R25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="S25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="T25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="U25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="V25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="W25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="X25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858199</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="C26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="D26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="E26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="F26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="G26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="H26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="I26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="T26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="U26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="V26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="W26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="X26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="Y26" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="C28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="D28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="E28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="F28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="G28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="H28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="I28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="J28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="K28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="L28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="M28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="N28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="O28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="P28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="R28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="S28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="T28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="U28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="V28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="W28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="X28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.34229476077817</v>
+        <v>62.3422947607781</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="C29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="D29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="E29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="F29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="G29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="H29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="I29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="T29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="U29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="V29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="W29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="X29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="Y29" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="C31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="D31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="E31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="F31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="G31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="H31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="I31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="J31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="K31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="L31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="M31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="N31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="O31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="P31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="R31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="S31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="T31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="U31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="V31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="W31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="X31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.34229476077822</v>
+        <v>62.3422947607781</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="C35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="D35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="E35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="F35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="G35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="H35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="I35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="T35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="U35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="V35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="W35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="X35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="Y35" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="C37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="D37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="E37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="F37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="G37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="H37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="I37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="J37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="K37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="L37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="M37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="N37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="O37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="P37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="R37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="S37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="T37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="U37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="V37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="W37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="X37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.18919426858197</v>
+        <v>83.18919426858194</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="C41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="D41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="E41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="F41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="G41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="H41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="I41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="T41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="U41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="V41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="W41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="X41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="Y41" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="C43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="D43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="E43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="F43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="G43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="H43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="I43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="J43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="K43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="L43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="M43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="N43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="O43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="P43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="R43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="S43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="T43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="U43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="V43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="W43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="X43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
       <c r="Y43" t="n">
-        <v>83.18919426858194</v>
+        <v>83.18919426858193</v>
       </c>
     </row>
     <row r="44">
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.596064170869777</v>
+        <v>2.596064170869776</v>
       </c>
       <c r="H20" t="n">
-        <v>26.58694218992011</v>
+        <v>26.5869421899201</v>
       </c>
       <c r="I20" t="n">
-        <v>100.0847639474572</v>
+        <v>100.0847639474571</v>
       </c>
       <c r="J20" t="n">
         <v>220.3377014223589</v>
       </c>
       <c r="K20" t="n">
-        <v>330.2290977752767</v>
+        <v>330.2290977752766</v>
       </c>
       <c r="L20" t="n">
-        <v>409.6783966445327</v>
+        <v>409.6783966445325</v>
       </c>
       <c r="M20" t="n">
-        <v>455.846152843238</v>
+        <v>455.8461528432379</v>
       </c>
       <c r="N20" t="n">
-        <v>463.2222201687218</v>
+        <v>463.2222201687217</v>
       </c>
       <c r="O20" t="n">
-        <v>437.4076070696354</v>
+        <v>437.4076070696353</v>
       </c>
       <c r="P20" t="n">
-        <v>373.3172728512878</v>
+        <v>373.3172728512877</v>
       </c>
       <c r="Q20" t="n">
-        <v>280.3457247320138</v>
+        <v>280.3457247320137</v>
       </c>
       <c r="R20" t="n">
-        <v>163.0750159733988</v>
+        <v>163.0750159733987</v>
       </c>
       <c r="S20" t="n">
-        <v>59.1578122936951</v>
+        <v>59.15781229369508</v>
       </c>
       <c r="T20" t="n">
         <v>11.36427090798245</v>
@@ -32546,43 +32546,43 @@
         <v>13.41497791918391</v>
       </c>
       <c r="I21" t="n">
-        <v>47.82360429863473</v>
+        <v>47.82360429863472</v>
       </c>
       <c r="J21" t="n">
-        <v>131.2316255027887</v>
+        <v>131.2316255027886</v>
       </c>
       <c r="K21" t="n">
-        <v>224.2957502500427</v>
+        <v>224.2957502500426</v>
       </c>
       <c r="L21" t="n">
-        <v>301.5933160259762</v>
+        <v>301.593316025976</v>
       </c>
       <c r="M21" t="n">
-        <v>351.9451745646023</v>
+        <v>351.9451745646022</v>
       </c>
       <c r="N21" t="n">
-        <v>361.2601160897759</v>
+        <v>361.2601160897758</v>
       </c>
       <c r="O21" t="n">
-        <v>330.4824283296864</v>
+        <v>330.4824283296863</v>
       </c>
       <c r="P21" t="n">
-        <v>265.2412845801222</v>
+        <v>265.2412845801221</v>
       </c>
       <c r="Q21" t="n">
         <v>177.3067744595497</v>
       </c>
       <c r="R21" t="n">
-        <v>86.24088438872275</v>
+        <v>86.24088438872271</v>
       </c>
       <c r="S21" t="n">
         <v>25.80037760569655</v>
       </c>
       <c r="T21" t="n">
-        <v>5.598712401330611</v>
+        <v>5.59871240133061</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09138268337318742</v>
+        <v>0.09138268337318739</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.164505014351218</v>
       </c>
       <c r="H22" t="n">
-        <v>10.35350821850448</v>
+        <v>10.35350821850447</v>
       </c>
       <c r="I22" t="n">
-        <v>35.01984170430756</v>
+        <v>35.01984170430755</v>
       </c>
       <c r="J22" t="n">
-        <v>82.33050451463113</v>
+        <v>82.3305045146311</v>
       </c>
       <c r="K22" t="n">
-        <v>135.2943098491688</v>
+        <v>135.2943098491687</v>
       </c>
       <c r="L22" t="n">
-        <v>173.1301364063621</v>
+        <v>173.130136406362</v>
       </c>
       <c r="M22" t="n">
         <v>182.5414542041641</v>
       </c>
       <c r="N22" t="n">
-        <v>178.2010264234007</v>
+        <v>178.2010264234006</v>
       </c>
       <c r="O22" t="n">
-        <v>164.5974905739341</v>
+        <v>164.597490573934</v>
       </c>
       <c r="P22" t="n">
         <v>140.8415882811691</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.51141533808249</v>
+        <v>97.51141533808244</v>
       </c>
       <c r="R22" t="n">
-        <v>52.36038000891931</v>
+        <v>52.36038000891929</v>
       </c>
       <c r="S22" t="n">
-        <v>20.29414647737532</v>
+        <v>20.29414647737531</v>
       </c>
       <c r="T22" t="n">
-        <v>4.975612334046113</v>
+        <v>4.975612334046112</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06351845532824835</v>
+        <v>0.06351845532824832</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.596064170869776</v>
+        <v>2.596064170869777</v>
       </c>
       <c r="H41" t="n">
         <v>26.58694218992011</v>
       </c>
       <c r="I41" t="n">
-        <v>100.0847639474571</v>
+        <v>100.0847639474572</v>
       </c>
       <c r="J41" t="n">
         <v>220.3377014223589</v>
       </c>
       <c r="K41" t="n">
-        <v>330.2290977752766</v>
+        <v>330.2290977752767</v>
       </c>
       <c r="L41" t="n">
-        <v>409.6783966445326</v>
+        <v>409.6783966445327</v>
       </c>
       <c r="M41" t="n">
         <v>455.846152843238</v>
@@ -34147,16 +34147,16 @@
         <v>437.4076070696354</v>
       </c>
       <c r="P41" t="n">
-        <v>373.3172728512877</v>
+        <v>373.3172728512878</v>
       </c>
       <c r="Q41" t="n">
         <v>280.3457247320138</v>
       </c>
       <c r="R41" t="n">
-        <v>163.0750159733987</v>
+        <v>163.0750159733988</v>
       </c>
       <c r="S41" t="n">
-        <v>59.15781229369509</v>
+        <v>59.1578122936951</v>
       </c>
       <c r="T41" t="n">
         <v>11.36427090798245</v>
@@ -34208,40 +34208,40 @@
         <v>47.82360429863473</v>
       </c>
       <c r="J42" t="n">
-        <v>131.2316255027886</v>
+        <v>131.2316255027887</v>
       </c>
       <c r="K42" t="n">
-        <v>224.2957502500426</v>
+        <v>224.2957502500427</v>
       </c>
       <c r="L42" t="n">
-        <v>301.5933160259761</v>
+        <v>301.5933160259762</v>
       </c>
       <c r="M42" t="n">
-        <v>351.9451745646022</v>
+        <v>351.9451745646023</v>
       </c>
       <c r="N42" t="n">
         <v>361.2601160897759</v>
       </c>
       <c r="O42" t="n">
-        <v>330.4824283296863</v>
+        <v>330.4824283296864</v>
       </c>
       <c r="P42" t="n">
-        <v>265.2412845801221</v>
+        <v>265.2412845801222</v>
       </c>
       <c r="Q42" t="n">
         <v>177.3067744595497</v>
       </c>
       <c r="R42" t="n">
-        <v>86.24088438872272</v>
+        <v>86.24088438872275</v>
       </c>
       <c r="S42" t="n">
         <v>25.80037760569655</v>
       </c>
       <c r="T42" t="n">
-        <v>5.59871240133061</v>
+        <v>5.598712401330611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0913826833731874</v>
+        <v>0.09138268337318742</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>1.164505014351218</v>
       </c>
       <c r="H43" t="n">
-        <v>10.35350821850447</v>
+        <v>10.35350821850448</v>
       </c>
       <c r="I43" t="n">
-        <v>35.01984170430755</v>
+        <v>35.01984170430756</v>
       </c>
       <c r="J43" t="n">
-        <v>82.33050451463112</v>
+        <v>82.33050451463113</v>
       </c>
       <c r="K43" t="n">
         <v>135.2943098491688</v>
       </c>
       <c r="L43" t="n">
-        <v>173.130136406362</v>
+        <v>173.1301364063621</v>
       </c>
       <c r="M43" t="n">
         <v>182.5414542041641</v>
       </c>
       <c r="N43" t="n">
-        <v>178.2010264234006</v>
+        <v>178.2010264234007</v>
       </c>
       <c r="O43" t="n">
         <v>164.5974905739341</v>
@@ -34308,19 +34308,19 @@
         <v>140.8415882811691</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.51141533808246</v>
+        <v>97.51141533808249</v>
       </c>
       <c r="R43" t="n">
-        <v>52.3603800089193</v>
+        <v>52.36038000891931</v>
       </c>
       <c r="S43" t="n">
-        <v>20.29414647737531</v>
+        <v>20.29414647737532</v>
       </c>
       <c r="T43" t="n">
-        <v>4.975612334046112</v>
+        <v>4.975612334046113</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06351845532824833</v>
+        <v>0.06351845532824835</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.596064170869776</v>
+        <v>2.596064170869777</v>
       </c>
       <c r="H44" t="n">
         <v>26.58694218992011</v>
       </c>
       <c r="I44" t="n">
-        <v>100.0847639474571</v>
+        <v>100.0847639474572</v>
       </c>
       <c r="J44" t="n">
         <v>220.3377014223589</v>
       </c>
       <c r="K44" t="n">
-        <v>330.2290977752766</v>
+        <v>330.2290977752767</v>
       </c>
       <c r="L44" t="n">
-        <v>409.6783966445326</v>
+        <v>409.6783966445327</v>
       </c>
       <c r="M44" t="n">
         <v>455.846152843238</v>
@@ -34384,16 +34384,16 @@
         <v>437.4076070696354</v>
       </c>
       <c r="P44" t="n">
-        <v>373.3172728512877</v>
+        <v>373.3172728512878</v>
       </c>
       <c r="Q44" t="n">
         <v>280.3457247320138</v>
       </c>
       <c r="R44" t="n">
-        <v>163.0750159733987</v>
+        <v>163.0750159733988</v>
       </c>
       <c r="S44" t="n">
-        <v>59.15781229369509</v>
+        <v>59.1578122936951</v>
       </c>
       <c r="T44" t="n">
         <v>11.36427090798245</v>
@@ -34445,40 +34445,40 @@
         <v>47.82360429863473</v>
       </c>
       <c r="J45" t="n">
-        <v>131.2316255027886</v>
+        <v>131.2316255027887</v>
       </c>
       <c r="K45" t="n">
-        <v>224.2957502500426</v>
+        <v>224.2957502500427</v>
       </c>
       <c r="L45" t="n">
-        <v>301.5933160259761</v>
+        <v>301.5933160259762</v>
       </c>
       <c r="M45" t="n">
-        <v>351.9451745646022</v>
+        <v>351.9451745646023</v>
       </c>
       <c r="N45" t="n">
         <v>361.2601160897759</v>
       </c>
       <c r="O45" t="n">
-        <v>330.4824283296863</v>
+        <v>330.4824283296864</v>
       </c>
       <c r="P45" t="n">
-        <v>265.2412845801221</v>
+        <v>265.2412845801222</v>
       </c>
       <c r="Q45" t="n">
         <v>177.3067744595497</v>
       </c>
       <c r="R45" t="n">
-        <v>86.24088438872272</v>
+        <v>86.24088438872275</v>
       </c>
       <c r="S45" t="n">
         <v>25.80037760569655</v>
       </c>
       <c r="T45" t="n">
-        <v>5.59871240133061</v>
+        <v>5.598712401330611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0913826833731874</v>
+        <v>0.09138268337318742</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>1.164505014351218</v>
       </c>
       <c r="H46" t="n">
-        <v>10.35350821850447</v>
+        <v>10.35350821850448</v>
       </c>
       <c r="I46" t="n">
-        <v>35.01984170430755</v>
+        <v>35.01984170430756</v>
       </c>
       <c r="J46" t="n">
-        <v>82.33050451463112</v>
+        <v>82.33050451463113</v>
       </c>
       <c r="K46" t="n">
         <v>135.2943098491688</v>
       </c>
       <c r="L46" t="n">
-        <v>173.130136406362</v>
+        <v>173.1301364063621</v>
       </c>
       <c r="M46" t="n">
         <v>182.5414542041641</v>
       </c>
       <c r="N46" t="n">
-        <v>178.2010264234006</v>
+        <v>178.2010264234007</v>
       </c>
       <c r="O46" t="n">
         <v>164.5974905739341</v>
@@ -34545,19 +34545,19 @@
         <v>140.8415882811691</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.51141533808246</v>
+        <v>97.51141533808249</v>
       </c>
       <c r="R46" t="n">
-        <v>52.3603800089193</v>
+        <v>52.36038000891931</v>
       </c>
       <c r="S46" t="n">
-        <v>20.29414647737531</v>
+        <v>20.29414647737532</v>
       </c>
       <c r="T46" t="n">
-        <v>4.975612334046112</v>
+        <v>4.975612334046113</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06351845532824833</v>
+        <v>0.06351845532824835</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34787,13 +34787,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N3" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="O3" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403968</v>
       </c>
       <c r="N5" t="n">
         <v>25.62029119463083</v>
@@ -34951,7 +34951,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="P5" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>24.58512791403968</v>
       </c>
       <c r="M6" t="n">
-        <v>24.58512791403968</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>37.98452839772582</v>
@@ -35270,7 +35270,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.29179689567263</v>
+        <v>208.3884120677464</v>
       </c>
       <c r="K11" t="n">
         <v>434.2846593014609</v>
@@ -35416,7 +35416,7 @@
         <v>591.5731962249959</v>
       </c>
       <c r="M11" t="n">
-        <v>675.0134531087978</v>
+        <v>355.9608129526322</v>
       </c>
       <c r="N11" t="n">
         <v>671.1560809841151</v>
@@ -35428,10 +35428,10 @@
         <v>463.8829852675009</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.604898565627</v>
+        <v>270.355025517469</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>13.20589803224908</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>130.4850341765308</v>
       </c>
       <c r="K12" t="n">
-        <v>86.45431127568369</v>
+        <v>350.9195482882623</v>
       </c>
       <c r="L12" t="n">
-        <v>163.038936246102</v>
+        <v>533.8792815495611</v>
       </c>
       <c r="M12" t="n">
-        <v>675.5162043925839</v>
+        <v>209.811140642584</v>
       </c>
       <c r="N12" t="n">
-        <v>709.2607783499961</v>
+        <v>229.9184040064426</v>
       </c>
       <c r="O12" t="n">
-        <v>581.7485031619715</v>
+        <v>441.3818960113699</v>
       </c>
       <c r="P12" t="n">
-        <v>131.2668771657919</v>
+        <v>449.7296458057291</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.7565938211969</v>
+        <v>247.4022881093773</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.39468138819633</v>
+        <v>13.39468138819645</v>
       </c>
       <c r="K13" t="n">
-        <v>137.4481750135239</v>
+        <v>137.448175013524</v>
       </c>
       <c r="L13" t="n">
-        <v>225.1435186569162</v>
+        <v>225.1435186569163</v>
       </c>
       <c r="M13" t="n">
-        <v>246.5486881562427</v>
+        <v>246.5486881562428</v>
       </c>
       <c r="N13" t="n">
-        <v>246.7565557928672</v>
+        <v>246.7565557928673</v>
       </c>
       <c r="O13" t="n">
-        <v>213.6059754782117</v>
+        <v>213.6059754782119</v>
       </c>
       <c r="P13" t="n">
-        <v>162.5435045363006</v>
+        <v>162.5435045363007</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.77272907662609</v>
+        <v>35.7727290766262</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>39.29179689567263</v>
+        <v>208.3884120677464</v>
       </c>
       <c r="K14" t="n">
         <v>434.2846593014609</v>
@@ -35662,13 +35662,13 @@
         <v>588.109576910694</v>
       </c>
       <c r="P14" t="n">
-        <v>463.8829852675009</v>
+        <v>158.0362431435843</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.3990005333781</v>
+        <v>270.355025517469</v>
       </c>
       <c r="R14" t="n">
-        <v>13.20589803224908</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.39468138819633</v>
+        <v>13.39468138819645</v>
       </c>
       <c r="K16" t="n">
-        <v>137.4481750135239</v>
+        <v>137.448175013524</v>
       </c>
       <c r="L16" t="n">
-        <v>225.1435186569162</v>
+        <v>225.1435186569163</v>
       </c>
       <c r="M16" t="n">
-        <v>246.5486881562427</v>
+        <v>246.5486881562428</v>
       </c>
       <c r="N16" t="n">
-        <v>246.7565557928672</v>
+        <v>246.7565557928673</v>
       </c>
       <c r="O16" t="n">
-        <v>213.6059754782117</v>
+        <v>213.6059754782119</v>
       </c>
       <c r="P16" t="n">
-        <v>162.5435045363006</v>
+        <v>162.5435045363007</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.77272907662609</v>
+        <v>35.7727290766262</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>208.3884120677464</v>
+        <v>39.29179689567263</v>
       </c>
       <c r="K17" t="n">
         <v>434.2846593014609</v>
@@ -35890,7 +35890,7 @@
         <v>591.5731962249959</v>
       </c>
       <c r="M17" t="n">
-        <v>355.9608129526331</v>
+        <v>538.2633261569548</v>
       </c>
       <c r="N17" t="n">
         <v>671.1560809841151</v>
@@ -35905,7 +35905,7 @@
         <v>270.355025517469</v>
       </c>
       <c r="R17" t="n">
-        <v>13.20589803224908</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>209.811140642584</v>
       </c>
       <c r="N18" t="n">
-        <v>229.9184040064426</v>
+        <v>483.4141161325705</v>
       </c>
       <c r="O18" t="n">
-        <v>441.3818960113699</v>
+        <v>187.886183885242</v>
       </c>
       <c r="P18" t="n">
         <v>449.7296458057291</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>114.8566606037356</v>
+        <v>39.29179689567258</v>
       </c>
       <c r="K20" t="n">
-        <v>434.2846593014609</v>
+        <v>297.5345323496185</v>
       </c>
       <c r="L20" t="n">
-        <v>591.5731962249959</v>
+        <v>591.5731962249957</v>
       </c>
       <c r="M20" t="n">
-        <v>675.0134531087978</v>
+        <v>675.0134531087976</v>
       </c>
       <c r="N20" t="n">
-        <v>671.1560809841151</v>
+        <v>671.1560809841149</v>
       </c>
       <c r="O20" t="n">
-        <v>588.109576910694</v>
+        <v>588.1095769106939</v>
       </c>
       <c r="P20" t="n">
-        <v>463.8829852675009</v>
+        <v>463.8829852675008</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.04003485756434</v>
+        <v>270.3550255174689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>130.4850341765308</v>
+        <v>130.4850341765307</v>
       </c>
       <c r="K21" t="n">
-        <v>350.9195482882623</v>
+        <v>350.9195482882622</v>
       </c>
       <c r="L21" t="n">
-        <v>533.8792815495611</v>
+        <v>533.879281549561</v>
       </c>
       <c r="M21" t="n">
-        <v>209.811140642584</v>
+        <v>209.8111406425838</v>
       </c>
       <c r="N21" t="n">
-        <v>229.9184040064426</v>
+        <v>483.4141161325708</v>
       </c>
       <c r="O21" t="n">
-        <v>441.3818960113699</v>
+        <v>187.8861838852418</v>
       </c>
       <c r="P21" t="n">
-        <v>449.7296458057291</v>
+        <v>449.729645805729</v>
       </c>
       <c r="Q21" t="n">
         <v>247.4022881093773</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.16051866654033</v>
+        <v>72.16051866654031</v>
       </c>
       <c r="K22" t="n">
         <v>196.2140122918679</v>
       </c>
       <c r="L22" t="n">
-        <v>283.9093559352602</v>
+        <v>283.9093559352601</v>
       </c>
       <c r="M22" t="n">
-        <v>305.3145254345867</v>
+        <v>305.3145254345866</v>
       </c>
       <c r="N22" t="n">
-        <v>305.5223930712112</v>
+        <v>305.5223930712111</v>
       </c>
       <c r="O22" t="n">
-        <v>272.3718127565558</v>
+        <v>272.3718127565557</v>
       </c>
       <c r="P22" t="n">
-        <v>221.3093418146446</v>
+        <v>221.3093418146445</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.53856635497007</v>
+        <v>94.53856635497004</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>114.8566606037356</v>
+        <v>208.3884120677464</v>
       </c>
       <c r="K23" t="n">
         <v>434.2846593014609</v>
       </c>
       <c r="L23" t="n">
-        <v>591.5731962249959</v>
+        <v>272.5205560688312</v>
       </c>
       <c r="M23" t="n">
         <v>675.0134531087978</v>
@@ -36376,10 +36376,10 @@
         <v>463.8829852675009</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.04003485756434</v>
+        <v>270.355025517469</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>13.20589803224908</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>130.4850341765308</v>
       </c>
       <c r="K24" t="n">
-        <v>350.9195482882623</v>
+        <v>86.45431127568369</v>
       </c>
       <c r="L24" t="n">
-        <v>533.8792815495611</v>
+        <v>163.038936246102</v>
       </c>
       <c r="M24" t="n">
-        <v>463.3068527687117</v>
+        <v>675.5162043925839</v>
       </c>
       <c r="N24" t="n">
-        <v>229.9184040064426</v>
+        <v>259.1523154218788</v>
       </c>
       <c r="O24" t="n">
-        <v>187.886183885242</v>
+        <v>581.7485031619715</v>
       </c>
       <c r="P24" t="n">
         <v>449.7296458057291</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.16051866654033</v>
+        <v>72.16051866654034</v>
       </c>
       <c r="K25" t="n">
         <v>196.2140122918679</v>
@@ -36534,7 +36534,7 @@
         <v>221.3093418146446</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.53856635497007</v>
+        <v>94.53856635497009</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>130.4850341765308</v>
+        <v>4.393998836121966</v>
       </c>
       <c r="K27" t="n">
-        <v>350.9195482882623</v>
+        <v>86.45431127568369</v>
       </c>
       <c r="L27" t="n">
         <v>533.8792815495611</v>
       </c>
       <c r="M27" t="n">
-        <v>209.811140642584</v>
+        <v>670.0780935808184</v>
       </c>
       <c r="N27" t="n">
         <v>229.9184040064426</v>
       </c>
       <c r="O27" t="n">
-        <v>441.3818960113699</v>
+        <v>581.7485031619715</v>
       </c>
       <c r="P27" t="n">
         <v>449.7296458057291</v>
       </c>
       <c r="Q27" t="n">
-        <v>247.4022881093773</v>
+        <v>37.32500037352821</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.31361915873652</v>
+        <v>51.31361915873645</v>
       </c>
       <c r="K28" t="n">
-        <v>175.3671127840641</v>
+        <v>175.367112784064</v>
       </c>
       <c r="L28" t="n">
-        <v>263.0624564274564</v>
+        <v>263.0624564274563</v>
       </c>
       <c r="M28" t="n">
-        <v>284.4676259267829</v>
+        <v>284.4676259267828</v>
       </c>
       <c r="N28" t="n">
         <v>284.6754935634074</v>
@@ -36768,10 +36768,10 @@
         <v>251.5249132487519</v>
       </c>
       <c r="P28" t="n">
-        <v>200.4624423068408</v>
+        <v>200.4624423068407</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.69166684716626</v>
+        <v>73.6916668471662</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>533.8792815495611</v>
       </c>
       <c r="M30" t="n">
-        <v>209.811140642584</v>
+        <v>463.3068527687117</v>
       </c>
       <c r="N30" t="n">
         <v>229.9184040064426</v>
       </c>
       <c r="O30" t="n">
-        <v>441.3818960113699</v>
+        <v>187.886183885242</v>
       </c>
       <c r="P30" t="n">
         <v>449.7296458057291</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>51.31361915873657</v>
+        <v>51.31361915873645</v>
       </c>
       <c r="K31" t="n">
-        <v>175.3671127840641</v>
+        <v>175.367112784064</v>
       </c>
       <c r="L31" t="n">
-        <v>263.0624564274564</v>
+        <v>263.0624564274563</v>
       </c>
       <c r="M31" t="n">
-        <v>284.4676259267829</v>
+        <v>284.4676259267828</v>
       </c>
       <c r="N31" t="n">
-        <v>284.6754935634075</v>
+        <v>284.6754935634074</v>
       </c>
       <c r="O31" t="n">
-        <v>251.524913248752</v>
+        <v>251.5249132487519</v>
       </c>
       <c r="P31" t="n">
-        <v>200.4624423068408</v>
+        <v>200.4624423068407</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.69166684716632</v>
+        <v>73.6916668471662</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>153.0982542824313</v>
+        <v>208.3884120677464</v>
       </c>
       <c r="K32" t="n">
         <v>434.2846593014609</v>
@@ -37075,7 +37075,7 @@
         <v>591.5731962249959</v>
       </c>
       <c r="M32" t="n">
-        <v>675.0134531087978</v>
+        <v>632.9291933557314</v>
       </c>
       <c r="N32" t="n">
         <v>671.1560809841151</v>
@@ -37090,7 +37090,7 @@
         <v>270.355025517469</v>
       </c>
       <c r="R32" t="n">
-        <v>13.20589803224908</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>130.4850341765308</v>
+        <v>4.393998836121966</v>
       </c>
       <c r="K33" t="n">
-        <v>102.0509120975662</v>
+        <v>313.9989140370313</v>
       </c>
       <c r="L33" t="n">
-        <v>163.038936246102</v>
+        <v>533.8792815495611</v>
       </c>
       <c r="M33" t="n">
-        <v>209.811140642584</v>
+        <v>675.5162043925839</v>
       </c>
       <c r="N33" t="n">
         <v>709.2607783499961</v>
       </c>
       <c r="O33" t="n">
-        <v>581.7485031619715</v>
+        <v>187.886183885242</v>
       </c>
       <c r="P33" t="n">
-        <v>449.7296458057291</v>
+        <v>131.2668771657919</v>
       </c>
       <c r="Q33" t="n">
-        <v>247.4022881093773</v>
+        <v>37.32500037352821</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>208.3884120677464</v>
+        <v>101.6507625714876</v>
       </c>
       <c r="K35" t="n">
         <v>434.2846593014609</v>
@@ -37315,7 +37315,7 @@
         <v>675.0134531087978</v>
       </c>
       <c r="N35" t="n">
-        <v>365.3093388601992</v>
+        <v>671.1560809841151</v>
       </c>
       <c r="O35" t="n">
         <v>588.109576910694</v>
@@ -37324,10 +37324,10 @@
         <v>463.8829852675009</v>
       </c>
       <c r="Q35" t="n">
-        <v>270.355025517469</v>
+        <v>58.04003485756434</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>13.20589803224908</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>130.4850341765308</v>
+        <v>4.393998836121966</v>
       </c>
       <c r="K36" t="n">
-        <v>350.9195482882623</v>
+        <v>86.45431127568369</v>
       </c>
       <c r="L36" t="n">
-        <v>533.8792815495611</v>
+        <v>318.363883001947</v>
       </c>
       <c r="M36" t="n">
-        <v>463.3068527687117</v>
+        <v>675.5162043925839</v>
       </c>
       <c r="N36" t="n">
         <v>229.9184040064426</v>
       </c>
       <c r="O36" t="n">
-        <v>187.886183885242</v>
+        <v>581.7485031619715</v>
       </c>
       <c r="P36" t="n">
         <v>449.7296458057291</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>72.16051866654033</v>
+        <v>72.1605186665403</v>
       </c>
       <c r="K37" t="n">
         <v>196.2140122918679</v>
@@ -37470,19 +37470,19 @@
         <v>283.9093559352602</v>
       </c>
       <c r="M37" t="n">
-        <v>305.3145254345867</v>
+        <v>305.3145254345866</v>
       </c>
       <c r="N37" t="n">
         <v>305.5223930712112</v>
       </c>
       <c r="O37" t="n">
-        <v>272.3718127565558</v>
+        <v>272.3718127565557</v>
       </c>
       <c r="P37" t="n">
-        <v>221.3093418146446</v>
+        <v>221.3093418146445</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.53856635497007</v>
+        <v>94.53856635497004</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>39.29179689567263</v>
+        <v>208.3884120677464</v>
       </c>
       <c r="K38" t="n">
         <v>434.2846593014609</v>
@@ -37552,7 +37552,7 @@
         <v>675.0134531087978</v>
       </c>
       <c r="N38" t="n">
-        <v>671.1560809841151</v>
+        <v>352.1034408279513</v>
       </c>
       <c r="O38" t="n">
         <v>588.109576910694</v>
@@ -37561,10 +37561,10 @@
         <v>463.8829852675009</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.604898565627</v>
+        <v>270.355025517469</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>13.20589803224908</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>209.811140642584</v>
       </c>
       <c r="N39" t="n">
-        <v>229.9184040064426</v>
+        <v>709.2607783499961</v>
       </c>
       <c r="O39" t="n">
-        <v>441.3818960113699</v>
+        <v>187.886183885242</v>
       </c>
       <c r="P39" t="n">
-        <v>449.7296458057291</v>
+        <v>223.8829835883032</v>
       </c>
       <c r="Q39" t="n">
         <v>247.4022881093773</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>208.3884120677464</v>
+        <v>39.29179689567263</v>
       </c>
       <c r="K41" t="n">
-        <v>434.2846593014608</v>
+        <v>297.5345323496193</v>
       </c>
       <c r="L41" t="n">
         <v>591.5731962249959</v>
       </c>
       <c r="M41" t="n">
-        <v>355.9608129526331</v>
+        <v>675.0134531087978</v>
       </c>
       <c r="N41" t="n">
         <v>671.1560809841151</v>
@@ -37795,13 +37795,13 @@
         <v>588.109576910694</v>
       </c>
       <c r="P41" t="n">
-        <v>463.8829852675008</v>
+        <v>463.8829852675009</v>
       </c>
       <c r="Q41" t="n">
         <v>270.355025517469</v>
       </c>
       <c r="R41" t="n">
-        <v>13.20589803224905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>130.4850341765308</v>
+        <v>4.393998836121966</v>
       </c>
       <c r="K42" t="n">
-        <v>350.9195482882623</v>
+        <v>86.45431127568369</v>
       </c>
       <c r="L42" t="n">
-        <v>533.879281549561</v>
+        <v>528.4411707377958</v>
       </c>
       <c r="M42" t="n">
-        <v>209.8111406425839</v>
+        <v>675.5162043925839</v>
       </c>
       <c r="N42" t="n">
         <v>229.9184040064426</v>
       </c>
       <c r="O42" t="n">
-        <v>441.3818960113701</v>
+        <v>581.7485031619715</v>
       </c>
       <c r="P42" t="n">
-        <v>449.729645805729</v>
+        <v>449.7296458057291</v>
       </c>
       <c r="Q42" t="n">
-        <v>247.4022881093773</v>
+        <v>37.32500037352821</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>72.16051866654028</v>
       </c>
       <c r="K43" t="n">
-        <v>196.2140122918678</v>
+        <v>196.2140122918679</v>
       </c>
       <c r="L43" t="n">
         <v>283.9093559352601</v>
@@ -37947,7 +37947,7 @@
         <v>305.3145254345866</v>
       </c>
       <c r="N43" t="n">
-        <v>305.5223930712111</v>
+        <v>305.5223930712112</v>
       </c>
       <c r="O43" t="n">
         <v>272.3718127565557</v>
@@ -37956,7 +37956,7 @@
         <v>221.3093418146445</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.53856635497002</v>
+        <v>94.53856635497003</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>208.3884120677464</v>
+        <v>39.29179689567263</v>
       </c>
       <c r="K44" t="n">
-        <v>434.2846593014608</v>
+        <v>434.2846593014609</v>
       </c>
       <c r="L44" t="n">
         <v>591.5731962249959</v>
@@ -38032,10 +38032,10 @@
         <v>588.109576910694</v>
       </c>
       <c r="P44" t="n">
-        <v>370.35123380349</v>
+        <v>327.1328583156593</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.04003485756428</v>
+        <v>270.355025517469</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>350.9195482882623</v>
       </c>
       <c r="L45" t="n">
-        <v>533.879281549561</v>
+        <v>533.8792815495611</v>
       </c>
       <c r="M45" t="n">
-        <v>209.8111406425839</v>
+        <v>209.811140642584</v>
       </c>
       <c r="N45" t="n">
         <v>229.9184040064426</v>
       </c>
       <c r="O45" t="n">
-        <v>441.3818960113701</v>
+        <v>441.3818960113699</v>
       </c>
       <c r="P45" t="n">
-        <v>449.729645805729</v>
+        <v>449.7296458057291</v>
       </c>
       <c r="Q45" t="n">
         <v>247.4022881093773</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.16051866654028</v>
+        <v>72.1605186665403</v>
       </c>
       <c r="K46" t="n">
-        <v>196.2140122918678</v>
+        <v>196.2140122918679</v>
       </c>
       <c r="L46" t="n">
-        <v>283.9093559352601</v>
+        <v>283.9093559352602</v>
       </c>
       <c r="M46" t="n">
         <v>305.3145254345866</v>
       </c>
       <c r="N46" t="n">
-        <v>305.5223930712111</v>
+        <v>305.5223930712112</v>
       </c>
       <c r="O46" t="n">
         <v>272.3718127565557</v>
@@ -38193,7 +38193,7 @@
         <v>221.3093418146445</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.53856635497002</v>
+        <v>94.53856635497004</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
